--- a/data/hotels_by_city/Houston/Houston_shard_588.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_588.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d551004-Reviews-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-SpringHill-Suites-Houston-Katy-Mills.h1189873.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1171 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r589960827-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>551004</t>
+  </si>
+  <si>
+    <t>589960827</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Passing by in our way to San Antonio</t>
+  </si>
+  <si>
+    <t>Good location, not that far away from the freeway. Near to a Katy Mill. Breakfast did not have some options compared to other similar hotels. But it was not crowded. The room was an upgraded room, booked it and paid a bit extra through Marriott app. The receptionist just gave me one extra small water bottle for being a platinum member, not a big deal but it was the smallest gift I got for being an elite member. I would have preferred just a smile.The fitness room is the smallest I have seen so far.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r565833404-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>565833404</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good night but HVAC limited to 66 degrees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had to change bedroom because the first HVAC did not have a way to turn the cycling of the fan off. Changed room and the other HVAC temp was limited to 66 degrees. I could have a much better night of sleep if my room was colder. Energy savings needs can’t be at the cost of my night of sleep. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r555208500-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>555208500</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Do not trust review on Marriott.com</t>
+  </si>
+  <si>
+    <t>We are Silver Elite members for Marriott rewards. We originally took the survey after our stay but our 3 star rating never got posted. We contacted Customer Care twice (sept and oct 2017) and said they will get back to us within 5 business days but never heard back. Was very disappointed that we took the time to review the hotel just to be ignored. Therefore, the reviews on marriott.com are filtered and not 100% accurate. Hotel itself is 3-star. 
+Here's our original review 
+We were able to check-in early per request during online reservation.  When we entered our room, the room smelled very muggy/ammonia-like (very bad urine smell).  We tried cranking up the AC for a good 5 hours before we decided that the smell was still there.  We called the front desk who answered promptly.  A maintenance gentleman came up with a bottle of Febreeze.  We asked him if he smelled that "pee" smell, he said he didn't smell anything.  We told him our situation, that we tried turning up the AC hoping the smell would go away.  The gentleman misunderstood and stated that all the AC are newly installed.  We walked him near an area we thought smelled very strongly but the gentleman was fixated on the AC.  He took the AC cover off and sprayed the Febreeze for a good 2 minutes on the AC and on the carpet area around.  He sprayed enough Febreeze to...We are Silver Elite members for Marriott rewards. We originally took the survey after our stay but our 3 star rating never got posted. We contacted Customer Care twice (sept and oct 2017) and said they will get back to us within 5 business days but never heard back. Was very disappointed that we took the time to review the hotel just to be ignored. Therefore, the reviews on marriott.com are filtered and not 100% accurate. Hotel itself is 3-star. Here's our original review We were able to check-in early per request during online reservation.  When we entered our room, the room smelled very muggy/ammonia-like (very bad urine smell).  We tried cranking up the AC for a good 5 hours before we decided that the smell was still there.  We called the front desk who answered promptly.  A maintenance gentleman came up with a bottle of Febreeze.  We asked him if he smelled that "pee" smell, he said he didn't smell anything.  We told him our situation, that we tried turning up the AC hoping the smell would go away.  The gentleman misunderstood and stated that all the AC are newly installed.  We walked him near an area we thought smelled very strongly but the gentleman was fixated on the AC.  He took the AC cover off and sprayed the Febreeze for a good 2 minutes on the AC and on the carpet area around.  He sprayed enough Febreeze to dampen the carpet around the area.  Febreeze covered the overall smell of the room for a couple hours until we noticed the urine/ammonia smell again.  We did not bother calling front desk because we felt like we were annoying them.  Instead we checked-out earlyMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>We are Silver Elite members for Marriott rewards. We originally took the survey after our stay but our 3 star rating never got posted. We contacted Customer Care twice (sept and oct 2017) and said they will get back to us within 5 business days but never heard back. Was very disappointed that we took the time to review the hotel just to be ignored. Therefore, the reviews on marriott.com are filtered and not 100% accurate. Hotel itself is 3-star. 
+Here's our original review 
+We were able to check-in early per request during online reservation.  When we entered our room, the room smelled very muggy/ammonia-like (very bad urine smell).  We tried cranking up the AC for a good 5 hours before we decided that the smell was still there.  We called the front desk who answered promptly.  A maintenance gentleman came up with a bottle of Febreeze.  We asked him if he smelled that "pee" smell, he said he didn't smell anything.  We told him our situation, that we tried turning up the AC hoping the smell would go away.  The gentleman misunderstood and stated that all the AC are newly installed.  We walked him near an area we thought smelled very strongly but the gentleman was fixated on the AC.  He took the AC cover off and sprayed the Febreeze for a good 2 minutes on the AC and on the carpet area around.  He sprayed enough Febreeze to...We are Silver Elite members for Marriott rewards. We originally took the survey after our stay but our 3 star rating never got posted. We contacted Customer Care twice (sept and oct 2017) and said they will get back to us within 5 business days but never heard back. Was very disappointed that we took the time to review the hotel just to be ignored. Therefore, the reviews on marriott.com are filtered and not 100% accurate. Hotel itself is 3-star. Here's our original review We were able to check-in early per request during online reservation.  When we entered our room, the room smelled very muggy/ammonia-like (very bad urine smell).  We tried cranking up the AC for a good 5 hours before we decided that the smell was still there.  We called the front desk who answered promptly.  A maintenance gentleman came up with a bottle of Febreeze.  We asked him if he smelled that "pee" smell, he said he didn't smell anything.  We told him our situation, that we tried turning up the AC hoping the smell would go away.  The gentleman misunderstood and stated that all the AC are newly installed.  We walked him near an area we thought smelled very strongly but the gentleman was fixated on the AC.  He took the AC cover off and sprayed the Febreeze for a good 2 minutes on the AC and on the carpet area around.  He sprayed enough Febreeze to dampen the carpet around the area.  Febreeze covered the overall smell of the room for a couple hours until we noticed the urine/ammonia smell again.  We did not bother calling front desk because we felt like we were annoying them.  Instead we checked-out earlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r529197914-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>529197914</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>General Manager extremely unprofessional and uncaring during Hurricane Harvey</t>
+  </si>
+  <si>
+    <t>I have never been treated so poorly at a hotel by staff.  When I explained to her that I would be escalating the issue her comment was "I look forward to it".
+We where a victim of Hurricane Harvey.  We took out all our items at 8 in the morning each day out of the room as we never knew what our days would entail or when we could find a home...  The last day unfolded like this ....we had a group of volunteers come and help us and we found out we found a home .  We called at 4:00 and apologized for not calling sooner but with the unexpected volunteers showing up and finding we had a place time slipped by.  I asked her if there was anything she could to to help with that nights cost, as well as letting her know all our items where out of the room and maybe someone else that is still homeless would be able to take the room....everyone working together to help each other.  She was very cold and said no it was after 4 and that was the end of the story....  We have received so much support from other places during this time and the one place that we have given thousands of dollars to over the years would not reach out to help.   Many other institutions ie.  Home Depot staff approached us in an isle and offer...I have never been treated so poorly at a hotel by staff.  When I explained to her that I would be escalating the issue her comment was "I look forward to it".We where a victim of Hurricane Harvey.  We took out all our items at 8 in the morning each day out of the room as we never knew what our days would entail or when we could find a home...  The last day unfolded like this ....we had a group of volunteers come and help us and we found out we found a home .  We called at 4:00 and apologized for not calling sooner but with the unexpected volunteers showing up and finding we had a place time slipped by.  I asked her if there was anything she could to to help with that nights cost, as well as letting her know all our items where out of the room and maybe someone else that is still homeless would be able to take the room....everyone working together to help each other.  She was very cold and said no it was after 4 and that was the end of the story....  We have received so much support from other places during this time and the one place that we have given thousands of dollars to over the years would not reach out to help.   Many other institutions ie.  Home Depot staff approached us in an isle and offer us 10% off all our items out of compassion. I STRONGLY RECOMMEND THAT YOU DO NOT SUPPORT THIS UNCARING LOCATION.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cassandra L, General Manager at SpringHill Suites Houston Katy Mills, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>I have never been treated so poorly at a hotel by staff.  When I explained to her that I would be escalating the issue her comment was "I look forward to it".
+We where a victim of Hurricane Harvey.  We took out all our items at 8 in the morning each day out of the room as we never knew what our days would entail or when we could find a home...  The last day unfolded like this ....we had a group of volunteers come and help us and we found out we found a home .  We called at 4:00 and apologized for not calling sooner but with the unexpected volunteers showing up and finding we had a place time slipped by.  I asked her if there was anything she could to to help with that nights cost, as well as letting her know all our items where out of the room and maybe someone else that is still homeless would be able to take the room....everyone working together to help each other.  She was very cold and said no it was after 4 and that was the end of the story....  We have received so much support from other places during this time and the one place that we have given thousands of dollars to over the years would not reach out to help.   Many other institutions ie.  Home Depot staff approached us in an isle and offer...I have never been treated so poorly at a hotel by staff.  When I explained to her that I would be escalating the issue her comment was "I look forward to it".We where a victim of Hurricane Harvey.  We took out all our items at 8 in the morning each day out of the room as we never knew what our days would entail or when we could find a home...  The last day unfolded like this ....we had a group of volunteers come and help us and we found out we found a home .  We called at 4:00 and apologized for not calling sooner but with the unexpected volunteers showing up and finding we had a place time slipped by.  I asked her if there was anything she could to to help with that nights cost, as well as letting her know all our items where out of the room and maybe someone else that is still homeless would be able to take the room....everyone working together to help each other.  She was very cold and said no it was after 4 and that was the end of the story....  We have received so much support from other places during this time and the one place that we have given thousands of dollars to over the years would not reach out to help.   Many other institutions ie.  Home Depot staff approached us in an isle and offer us 10% off all our items out of compassion. I STRONGLY RECOMMEND THAT YOU DO NOT SUPPORT THIS UNCARING LOCATION.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r512662085-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>512662085</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Never again - awful!</t>
+  </si>
+  <si>
+    <t>This place is filthy. There are way too many other options in Katy that have to be far better. If you're a Marriott member go to the Courtyard right down the street because you will be very disappointed with this place. From trash in the parking lot and cigarette butts all over to roaches by the ice machines and stained carpets to air filter grates covered with dust.  Stains on the walls, dust everywhere, stained and used notepad from previous occupant. I could go on and on. The roach sat on the floor by the ice machine the entire time we were there. Not once removed. How housekeeping never saw it was beyond me. I saw a couple moving their room as we checked in due to filth and should've gone elsewhere at that point. Stupid me who didn't want the hassle of getting the cancellation fees waived. I had to request the tv be fixed as well as a copy of my receipt because it wasn't under the door at check out. Both times I tried using the room phone and the static was so intense I had to hold it away from my ear. See pics below for proof. The owner should be ashamed of himself.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is filthy. There are way too many other options in Katy that have to be far better. If you're a Marriott member go to the Courtyard right down the street because you will be very disappointed with this place. From trash in the parking lot and cigarette butts all over to roaches by the ice machines and stained carpets to air filter grates covered with dust.  Stains on the walls, dust everywhere, stained and used notepad from previous occupant. I could go on and on. The roach sat on the floor by the ice machine the entire time we were there. Not once removed. How housekeeping never saw it was beyond me. I saw a couple moving their room as we checked in due to filth and should've gone elsewhere at that point. Stupid me who didn't want the hassle of getting the cancellation fees waived. I had to request the tv be fixed as well as a copy of my receipt because it wasn't under the door at check out. Both times I tried using the room phone and the static was so intense I had to hold it away from my ear. See pics below for proof. The owner should be ashamed of himself.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r511998419-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>511998419</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>From bad to worse to unacceptable!</t>
+  </si>
+  <si>
+    <t>Three rooms switches in less than six hours. The first room had soiled linens with holes burnt in them. I requested to be moved. I was placed in another room which was bug infested. Bugs in between the linens, bugs on coming out of the air conditioner when turned on, bugs on the nightstand. Needless to say not the room to rest at ease so I requested to be moved, showed the management the bugs all over. Third time really is a charm. They put in a room with a single bed when the original accomodation was two queens. They said this was all they had by this point. Third room was on the first floor, suite immediately next to pool exit. Was fed up and finally left, had to get another Uber and other accomodations after playing hotel hop.Unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Three rooms switches in less than six hours. The first room had soiled linens with holes burnt in them. I requested to be moved. I was placed in another room which was bug infested. Bugs in between the linens, bugs on coming out of the air conditioner when turned on, bugs on the nightstand. Needless to say not the room to rest at ease so I requested to be moved, showed the management the bugs all over. Third time really is a charm. They put in a room with a single bed when the original accomodation was two queens. They said this was all they had by this point. Third room was on the first floor, suite immediately next to pool exit. Was fed up and finally left, had to get another Uber and other accomodations after playing hotel hop.Unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r486461415-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>486461415</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>The only reason I didn't give more stars are for 2 reasonsGFI plug in bathroom had been painted and the plug no longer worked. Tried the test &amp; reset buttons but wouldn't work. As everyone knows, funding another plug that isn't behind the bed or tv is difficult. Plus no mirror 2nd reason, lobby smelled of smoke. Smoking area was by front door instead of 25' or more thus smoke came into the lobby. We are not smokers and have never been smokers so our sensitivity to smoke is heighten. The room was clean, the small living area was just right with a large sofa bed &amp; work desk. TV was located so you could watch tv in the bedroom or living area. Small refrigerator and sink area with microwave MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The only reason I didn't give more stars are for 2 reasonsGFI plug in bathroom had been painted and the plug no longer worked. Tried the test &amp; reset buttons but wouldn't work. As everyone knows, funding another plug that isn't behind the bed or tv is difficult. Plus no mirror 2nd reason, lobby smelled of smoke. Smoking area was by front door instead of 25' or more thus smoke came into the lobby. We are not smokers and have never been smokers so our sensitivity to smoke is heighten. The room was clean, the small living area was just right with a large sofa bed &amp; work desk. TV was located so you could watch tv in the bedroom or living area. Small refrigerator and sink area with microwave More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r484883155-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>484883155</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and serene environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myself and my wife stayed at Springhill for 1 night and I had the best night sleep ever. The air conditioner in our house stopped working and the house became uncomfortable so we decided to look for a hotel around. Springhill popped up and we checked in that same day. We want to do Springhill again anytime soon. Very quiet, clean and refreshing environment. Free wifi, breakfast and we even had complimentary bottles of water. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r484251679-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>484251679</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t>In town for one night stay. Room was clean &amp; comfortable.  Good bed &amp; pillows. Check in was quick &amp; easy. Staff was nice. Free breakfast &amp; evening snacks. Non-smoking property. Good location close to Katy Mills Mall, other hotels, Denny's &amp; Wal-Mart for any forgotten items Only complaint was room #115 located next to elevator.  I would stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r464381376-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>464381376</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Good Option</t>
+  </si>
+  <si>
+    <t>One of the nicer Springhill Suites with the additional benefit of appetizers and beverages in the evening as competition has increased in the area.I got a great rate with the same level of quality service and a clean and comfortable room.Will stay there again the next time.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r462985695-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>462985695</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the last minute spare of the moment type of hotel for me, at least the night I went! Overall, this is a great hotel , hospitality was great, and the breakfast was good. I would definitely return here when I back in the area! </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r442349877-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>442349877</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Once a year while on business in the area I have stayed at this hotel since it opened.  As a Lifetime Platinum Elite, the reception desk was lacking in service and 3 people were standing around talking instead of paying attention to customers.I asked for a room not facing traffic as best as possible as I don't sleep very well. I was assured that I had a quiet room. All night I was up listening to road traffic. The phones in my room did not work, the carpet is stained near the sink and very unappealing.Most disappointed in this stay and will look for a different Marriott the next time around.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Once a year while on business in the area I have stayed at this hotel since it opened.  As a Lifetime Platinum Elite, the reception desk was lacking in service and 3 people were standing around talking instead of paying attention to customers.I asked for a room not facing traffic as best as possible as I don't sleep very well. I was assured that I had a quiet room. All night I was up listening to road traffic. The phones in my room did not work, the carpet is stained near the sink and very unappealing.Most disappointed in this stay and will look for a different Marriott the next time around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r416300751-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>416300751</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Excellent for business or pleasure</t>
+  </si>
+  <si>
+    <t>Clean rooms, great service and comfy bed. Also great if traveling under tight budget. Breakfast are very good too!! Great location as it is right in front of katy mills and conveniently located to access I10</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r410265836-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>410265836</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>It's a Suite, Sort of</t>
+  </si>
+  <si>
+    <t>SpringHill Suites are a national chain owned by Marriott and they are generally good overall, providing a respectable level of comfort for a fair price. This property, near Katy Mills Mall, is a good enough place for a quiet stay even though not anything great or particularly memorable.
+I stayed here with the family for a short time while we were in the process of moving to a new home not far from this hotel. We liked the idea of staying in a suite because there are five of us and we need the extra space. We quickly learned, however, that the suites in this hotel barely qualify to be called as such and are nothing like other suites we have stayed at. There is no separate room, like you get at other suites. There is only a pull out couch that serves as an extra bed, but it is in full view of everyone else. We would have preferred something with a little more privacy. I was satisfied with the quietness and I found the mattress to be acceptably firm, even though the beds were only full size and not queen, making for a less comfortable sleep. 
+As for the rest of the room, it was functional and it was nice to have a mini- fridge to store some of our food since, as I said, we were in the process of moving. Outside of the room, there is...SpringHill Suites are a national chain owned by Marriott and they are generally good overall, providing a respectable level of comfort for a fair price. This property, near Katy Mills Mall, is a good enough place for a quiet stay even though not anything great or particularly memorable.I stayed here with the family for a short time while we were in the process of moving to a new home not far from this hotel. We liked the idea of staying in a suite because there are five of us and we need the extra space. We quickly learned, however, that the suites in this hotel barely qualify to be called as such and are nothing like other suites we have stayed at. There is no separate room, like you get at other suites. There is only a pull out couch that serves as an extra bed, but it is in full view of everyone else. We would have preferred something with a little more privacy. I was satisfied with the quietness and I found the mattress to be acceptably firm, even though the beds were only full size and not queen, making for a less comfortable sleep. As for the rest of the room, it was functional and it was nice to have a mini- fridge to store some of our food since, as I said, we were in the process of moving. Outside of the room, there is a small fitness center, business center, and pool. We did find time to take a swim, but my kids pointed out that the pool was quite small, and they are correct. It’s very basic, but then again, this is not a large resort hotel so one can’t expect great things.SpringHill Suites does serve complimentary continental breakfast, which was a good and convenient way to start the day. The wifi service is pretty good, too, and I didn’t lose my signal very often. So, when I think about everything this hotel has to offer, it seems deserving of a middle rating of three stars. It isn’t what I expect in a place that uses the word “suites” in its name, but it has enough good points to earn it a passing grade.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Sanjuana S, Manager at SpringHill Suites Houston Katy Mills, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>SpringHill Suites are a national chain owned by Marriott and they are generally good overall, providing a respectable level of comfort for a fair price. This property, near Katy Mills Mall, is a good enough place for a quiet stay even though not anything great or particularly memorable.
+I stayed here with the family for a short time while we were in the process of moving to a new home not far from this hotel. We liked the idea of staying in a suite because there are five of us and we need the extra space. We quickly learned, however, that the suites in this hotel barely qualify to be called as such and are nothing like other suites we have stayed at. There is no separate room, like you get at other suites. There is only a pull out couch that serves as an extra bed, but it is in full view of everyone else. We would have preferred something with a little more privacy. I was satisfied with the quietness and I found the mattress to be acceptably firm, even though the beds were only full size and not queen, making for a less comfortable sleep. 
+As for the rest of the room, it was functional and it was nice to have a mini- fridge to store some of our food since, as I said, we were in the process of moving. Outside of the room, there is...SpringHill Suites are a national chain owned by Marriott and they are generally good overall, providing a respectable level of comfort for a fair price. This property, near Katy Mills Mall, is a good enough place for a quiet stay even though not anything great or particularly memorable.I stayed here with the family for a short time while we were in the process of moving to a new home not far from this hotel. We liked the idea of staying in a suite because there are five of us and we need the extra space. We quickly learned, however, that the suites in this hotel barely qualify to be called as such and are nothing like other suites we have stayed at. There is no separate room, like you get at other suites. There is only a pull out couch that serves as an extra bed, but it is in full view of everyone else. We would have preferred something with a little more privacy. I was satisfied with the quietness and I found the mattress to be acceptably firm, even though the beds were only full size and not queen, making for a less comfortable sleep. As for the rest of the room, it was functional and it was nice to have a mini- fridge to store some of our food since, as I said, we were in the process of moving. Outside of the room, there is a small fitness center, business center, and pool. We did find time to take a swim, but my kids pointed out that the pool was quite small, and they are correct. It’s very basic, but then again, this is not a large resort hotel so one can’t expect great things.SpringHill Suites does serve complimentary continental breakfast, which was a good and convenient way to start the day. The wifi service is pretty good, too, and I didn’t lose my signal very often. So, when I think about everything this hotel has to offer, it seems deserving of a middle rating of three stars. It isn’t what I expect in a place that uses the word “suites” in its name, but it has enough good points to earn it a passing grade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r406044677-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>406044677</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Location with great access to Interstate 10. Hotel staff cordial. Quiet property. Clean lobby.  Room was spacious, but humid. Air condition unit very noisy, but we didn't want to go through the hassle of switching rooms after a day of moving. Reported air condition to front desk staff upon departure.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r397374635-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>397374635</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Hotel charges not what I expected</t>
+  </si>
+  <si>
+    <t>when I booked the room for Sunday night I was charged $141.00 which I thought was the total charge for the room.  Then I found out that I needed the room for an extra night and was pleasantly surprised that I was only charged $86.00 for the night.  Well when I see the charges I was shocked at all the extra fees that come with it.  I wish they would have told me ahead of time that the $141 was just a deposit and that additional charges would be tacked on in the end.  It was a nice stay and the housekeeping staff was amazing.  But just a little expensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>when I booked the room for Sunday night I was charged $141.00 which I thought was the total charge for the room.  Then I found out that I needed the room for an extra night and was pleasantly surprised that I was only charged $86.00 for the night.  Well when I see the charges I was shocked at all the extra fees that come with it.  I wish they would have told me ahead of time that the $141 was just a deposit and that additional charges would be tacked on in the end.  It was a nice stay and the housekeeping staff was amazing.  But just a little expensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r383653202-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>383653202</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Very Clean Hotel</t>
+  </si>
+  <si>
+    <t>Quiet – We had several college sports teams staying with us in the Hotel but our room stayed nice and quiet in the evening; good insulation in walls.Breakfast – Is a bit better than normal, scrambled eggs, sausage, cheese and meat tray, fruits, breads, cereals, and yogurt is served daily.Free NewsPaper USA today – Not much of a paper in my opinion.WIFI - I averaged 3 Mbps downloads, it keeps kicking you off line and getting back on takes timeNext to a large Mall and Water Park</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r365779244-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>365779244</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Comfortable room</t>
+  </si>
+  <si>
+    <t>Friendly staff, bed slept perfectly, spacious, clean room. Workout room could use improving, but son and I went to the Planet Fitness down the street. Excellent location (Bass Pro Shop less than 1/2 mile away). Would return there for sure.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r355158817-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>355158817</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Stiff beds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for one night on a business trip. Lobby was nice and the staff friendly and helpful. Room was nice enough however the mattresses on both beds were extremely hard. Pillows were good however I could not sleep due to the stiff mattresses . </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r355009067-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>355009067</t>
+  </si>
+  <si>
+    <t>Great Mini-Hotel, Too Expensive!</t>
+  </si>
+  <si>
+    <t>This is a great mini-Hotel with a full compliment of services, but too expensive. I'm out 40 weeks @ year traveling, and I pay my own bills. The best rate at this motel was about $109.00 @ night.It is fairly new with great rooms, beautiful lobby, and a full breakfast. If someone else picks up the tab, it's great. Otherwise find another motel.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r354660153-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>354660153</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while visiting our daughter and grandsons. The front desk staff was very friendly and helpful. The room was cery nice and clean. We liked the idea of a separate sitting area to watch tv. Great selection of tv channels. The only suggestion I would make is, to have an ice machine located in the kitchen area of the hotel. It is rather an inconvienence to have to bother the staff for ice.We will stay here again when visiting the Katy area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r340777053-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>340777053</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Marriott Disappointment</t>
+  </si>
+  <si>
+    <t>We will never stay at this hotel again!  Check in was at 3:00-we arrived at 4:15 and were told our room was not ready and it would be a 30 minute wait!  Not something you want to hear after traveling all day.  Paper thin walls between rooms.  Air conditioning in room was horrible!  Rooms was very hot so we turned it on.  On low, it became freezing as it would blow right on you in bed.  Within minutes of turning the air off, it was hot again.  Not a restful night.  Also, there were no tissues in the room and the bath products were horribly cheap products.  Shower head looked dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We will never stay at this hotel again!  Check in was at 3:00-we arrived at 4:15 and were told our room was not ready and it would be a 30 minute wait!  Not something you want to hear after traveling all day.  Paper thin walls between rooms.  Air conditioning in room was horrible!  Rooms was very hot so we turned it on.  On low, it became freezing as it would blow right on you in bed.  Within minutes of turning the air off, it was hot again.  Not a restful night.  Also, there were no tissues in the room and the bath products were horribly cheap products.  Shower head looked dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r337259739-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>337259739</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>great job General manager</t>
+  </si>
+  <si>
+    <t>I stayed at Springhill Suites several times and have dealt with the manager Stephanie Garza on several occasions she is very professional and understanding person. I have even seen her deal with guest out of hell that have no manners and feel like everything should be given to then for free, some even not owning up to their own errors. If your honest the first time she understands but when you get loud and throw tantrums cause your rich parents or in laws are there to back you up I can see why you would be denied of your request ... Just saying grow up and own up to your errorsMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at Springhill Suites several times and have dealt with the manager Stephanie Garza on several occasions she is very professional and understanding person. I have even seen her deal with guest out of hell that have no manners and feel like everything should be given to then for free, some even not owning up to their own errors. If your honest the first time she understands but when you get loud and throw tantrums cause your rich parents or in laws are there to back you up I can see why you would be denied of your request ... Just saying grow up and own up to your errorsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r336306271-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>336306271</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Reasonable price, free reception, free breakfast</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights here on business.  Room was fine with no kitchen and that's OK with me.  If you need a kitchenette, make sure you book on with it.  Good location, close to I-10 and next to Katy Mill mall.  Make sure you try the Los Cucos Mexican  restaurant in the mall.  Good food and reasonable price.Room was clean,  Internet acceptable, breakfast not bad with the usual standard stuff.  Did not try their evening reception.I recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r327929847-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>327929847</t>
+  </si>
+  <si>
+    <t>11/19/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for a friend's wedding and have no complaints. Room was comfortable, as were the beds (and I have chronic back pain). The check-in went well and staff were nice. Continental breakfast was the typical but there's a Denny's right across the parking lot where we had a nice hot breakfast. Would totally stay here again. </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r326892537-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>326892537</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>This is a Great Hotel to stay the night or extended stay.  The suite was fantastic.  Very clean and lot of room. Staff are friendly as well.  Breakfast bar is lacking a little bit but overall a very nice place.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r326103086-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>326103086</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>Nice, clean property. I am a big fan of this brand and this location did not disappoint. The hotel is modern and very nicely appointed. It is located very near a major customer of mine so the location is nice!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r321478952-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>321478952</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Beware of bumps in the night</t>
+  </si>
+  <si>
+    <t>We've stayed at numerous Marriott properties over the years.  Thursday night, 10/22/15, was our first stay at a Springhill Suites.  I had a meeting in Katy, TX, and made a reservation at the Springhill Suites near the Katy Mills Mall.  Everything appeared fine, until the lights went out.  I brought my wife and kids with me so they could shop at the mall while I was in my meeting.  Throughout Thursday night, we found THREE huge cockroaches in the bathroom.  I can't recall finding a roach in a hotel room in recent memory, let alone three of them.  We informed the front office staff when we checked out Friday morning, and all we got for a response was, sorry to hear that, or something along those lines.  I'm sure I'll continue to stay at other Marriott properties, but probably not Springhill Suites, and definitely not the location near the Katy Mills Mall.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We've stayed at numerous Marriott properties over the years.  Thursday night, 10/22/15, was our first stay at a Springhill Suites.  I had a meeting in Katy, TX, and made a reservation at the Springhill Suites near the Katy Mills Mall.  Everything appeared fine, until the lights went out.  I brought my wife and kids with me so they could shop at the mall while I was in my meeting.  Throughout Thursday night, we found THREE huge cockroaches in the bathroom.  I can't recall finding a roach in a hotel room in recent memory, let alone three of them.  We informed the front office staff when we checked out Friday morning, and all we got for a response was, sorry to hear that, or something along those lines.  I'm sure I'll continue to stay at other Marriott properties, but probably not Springhill Suites, and definitely not the location near the Katy Mills Mall.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r311430998-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>311430998</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Good hotel at reasonable price point</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel while attending a family celebration in the area.  For the price, the hotel was great.  The room was kept clean, the air conditioner worked well, the front desk staff was helpful when we had questions and checking in and out was easy.  It was not a hotel I would go out of my way to stay in but if I have another event in the area I will go back.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r299350989-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>299350989</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Shortest stay I've ever had...read on.</t>
+  </si>
+  <si>
+    <t>I didn't have high expectations when booking this hotel, but being a Marriott Silver Elite member, I did expect Marriott quality. When checking in the attendant was very nice and check in was fine. It was when we opened the door to the room when the wheels feel off. The room looked tired and smelled heavily perfumed.  If you've ever rented a party limo you can understand the smell.  We asked for another room as both my wife and son were getting headaches from the pungent smell.  I went to the desk and the young man said he'd move us, but the other room was just as strong.  Going to the desk again, we asked if housekeeping could get us a fan. When he arrived, he explained they "powdered" the carpet to alleviate odors...and was about to start spraying a clean linen spray to mask the other odor.  There is a new SH Suites opening soon, but not soon enough, in Katy and we will give it a go.  I have depended on Marriott properties for over 25 years, and some have been better than others, but this property was more in line with hotels with 6 or Best in their names.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I didn't have high expectations when booking this hotel, but being a Marriott Silver Elite member, I did expect Marriott quality. When checking in the attendant was very nice and check in was fine. It was when we opened the door to the room when the wheels feel off. The room looked tired and smelled heavily perfumed.  If you've ever rented a party limo you can understand the smell.  We asked for another room as both my wife and son were getting headaches from the pungent smell.  I went to the desk and the young man said he'd move us, but the other room was just as strong.  Going to the desk again, we asked if housekeeping could get us a fan. When he arrived, he explained they "powdered" the carpet to alleviate odors...and was about to start spraying a clean linen spray to mask the other odor.  There is a new SH Suites opening soon, but not soon enough, in Katy and we will give it a go.  I have depended on Marriott properties for over 25 years, and some have been better than others, but this property was more in line with hotels with 6 or Best in their names.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r281714162-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>281714162</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable big room, good breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were pleasantly surprised to find such a large room when we checked in.   Besides the 2 queen beds it had a comfortable hide-a-bed.    The room had two sinks, microwave and mini fridge.   The beds were comfortable and the whole place was neat and clean.   They had different breakfasts each day, all items were yummy and included hot items.   Staff was super friendly and they had plenty of extra amenities for some that were lost during travel.  An excellent stay in a clean safe area of the city.    </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r275352685-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>275352685</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Modern Hotel in Convenient Location</t>
+  </si>
+  <si>
+    <t>We were visiting relatives in Katy after a cruise out of Bayport. The hotel was nice, clean and modern. The room had two double beds and a separate sitting area with desk. They had a free breakfast buffet in the morning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r275118658-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>275118658</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Just alright</t>
+  </si>
+  <si>
+    <t>Didn't have a reservation, but they were able to accommodate me for the night. Hotels in area seemed pretty booked for a weekday, so I was glad I could get a room. Ok staff, not super friendly. Breakfast was good. Rooms were definitely dated, but clean. They charged for happy hour, which is usually free at Spring Hill, so I'm not sure if that is a Texas thing or just this location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r259394374-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>259394374</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>Staff needs training on customer service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are two other hotels right next to this one. Stay at either. Do not stay here.  The pool was not working and they really did not care. Checked in at noon. Tried to watch some TV at 9PM and it did not work. I was told by the evening staff that I (the customer) should have checked it out during the day. It gets worse. The manager the next morning ttold me the same thing. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r254592457-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>254592457</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Highly Recommend! Clean, Comfortable &amp; Friendly Staff</t>
+  </si>
+  <si>
+    <t>The hotel staff was very accommodating. Our Suites were clean and comfortable and the Breakfast was very good. We had 2 rooms for one night. I didn't care for the authorization amount on the credit card, it was almost double the amount of each room, so my advice is to budget accordingly.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r248397732-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>248397732</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Don't let the name fool you. These are not suites</t>
+  </si>
+  <si>
+    <t>When I booked our room the description states it would have 1 bedroom suite with 2 double beds and a pull out sofa in the living room. In actuality this is just a standard hotel room with 2 beds and small living area with a sleeper sofa. The bedroom is not separate, no door between. The 2 areas share a TV which is placed strangely facing a partition wall so that it can only be viewed from either the couch or 1 bed at a time depending on how you turn it. The bed closer to the window can not see the TV at all. The breakfast was good during the week but on the weekends the attendant was rarely seen and didn't keep the hot foods available. I would chose another hotel next time. MoreShow less</t>
+  </si>
+  <si>
+    <t>When I booked our room the description states it would have 1 bedroom suite with 2 double beds and a pull out sofa in the living room. In actuality this is just a standard hotel room with 2 beds and small living area with a sleeper sofa. The bedroom is not separate, no door between. The 2 areas share a TV which is placed strangely facing a partition wall so that it can only be viewed from either the couch or 1 bed at a time depending on how you turn it. The bed closer to the window can not see the TV at all. The breakfast was good during the week but on the weekends the attendant was rarely seen and didn't keep the hot foods available. I would chose another hotel next time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r217740858-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>217740858</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Disappointing...</t>
+  </si>
+  <si>
+    <t>I was not impressed with this hotel AT ALL! One night I used an in-room blanket provided by the hotel, then left it sitting on my suitcase in hopes that, as I've come to expect at most hotels, the staff would fold and put it back in the closet. It stayed on my suitcase for three days. I finally left it on the floor to see what would happen. When I returned to my room, it was folded all right, but left on my bed. 2) There was one night when my friend and I, sleeping in separate beds, started complaining about itching. It felt like something was biting. She actually got out of bed to make sure there was nothing in the sheets. 3) We noticed something on the floor that was there for at least two days. I thought they vacuumed everyday? 4) The final straw? I turned a knob to switch the light on and felt something sticky on the knob. It looked like a booger but it appeared someone had chewed gum or something and left it there. I was so skeeved, I couldn't wait to check out... DO NOT STAY THERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I was not impressed with this hotel AT ALL! One night I used an in-room blanket provided by the hotel, then left it sitting on my suitcase in hopes that, as I've come to expect at most hotels, the staff would fold and put it back in the closet. It stayed on my suitcase for three days. I finally left it on the floor to see what would happen. When I returned to my room, it was folded all right, but left on my bed. 2) There was one night when my friend and I, sleeping in separate beds, started complaining about itching. It felt like something was biting. She actually got out of bed to make sure there was nothing in the sheets. 3) We noticed something on the floor that was there for at least two days. I thought they vacuumed everyday? 4) The final straw? I turned a knob to switch the light on and felt something sticky on the knob. It looked like a booger but it appeared someone had chewed gum or something and left it there. I was so skeeved, I couldn't wait to check out... DO NOT STAY THERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r203400077-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>203400077</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Far from Just Ok- Awesome</t>
+  </si>
+  <si>
+    <t>I spent one night at this hotel passing thru Houston with my son.  He is a U.S.  Marine, and we were relocating his vehicle due a deployment from Twenty-nine Palms, CA to Okinawa, Japan.  The reason I mention this is not only because I am soo proud but I want his appetite to be obvious.  We checked in at 10:22pm, the gentleman that checked us in was so quick and efficient I truly did not have time catch his name.  The room was very clean, smelled great, had extra towels, and all the extra amenities I love about SpringHill. The beds are always very clean and comfortable, there are paper plates and plastic cutlery in the microwave, just in case. Their breakfast was VERY good with lots of choices and my Marine had plenty to eat.  The young lady that was attending the breakfast area could not have done a better job.  We enjoyed our stay and the service. The product could not have been better.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>I spent one night at this hotel passing thru Houston with my son.  He is a U.S.  Marine, and we were relocating his vehicle due a deployment from Twenty-nine Palms, CA to Okinawa, Japan.  The reason I mention this is not only because I am soo proud but I want his appetite to be obvious.  We checked in at 10:22pm, the gentleman that checked us in was so quick and efficient I truly did not have time catch his name.  The room was very clean, smelled great, had extra towels, and all the extra amenities I love about SpringHill. The beds are always very clean and comfortable, there are paper plates and plastic cutlery in the microwave, just in case. Their breakfast was VERY good with lots of choices and my Marine had plenty to eat.  The young lady that was attending the breakfast area could not have done a better job.  We enjoyed our stay and the service. The product could not have been better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r199570044-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>199570044</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Stay was good...</t>
+  </si>
+  <si>
+    <t>I stay in hotels often and can say that this is a standard Springhill Suite.  The rooms were of good size but the layout was strange, the TV was split between the beds and sitting area so if sitting on the far bed you can't see the TV? The staff was helpful an overall good stay.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r190342820-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>190342820</t>
+  </si>
+  <si>
+    <t>01/09/2014</t>
+  </si>
+  <si>
+    <t>spider bites</t>
+  </si>
+  <si>
+    <t>stayed at this hotel on October 23rd, seemingly the property was in average shape.  We checked in late that evening, and retired to bed shortly after.  The next morning as we were packing up to check out, we noticed a dead spider in the shower, and another spider in the bathroom area crawling around.  As I was getting dressed I noticed 5 red bumps on my left ankle, and wasn't sure what had happened.  The bumps got a bit bigger, so I did a google search on spider bites, and my marks matched the pictures I saw online.
+I stay in hotels 50-75 nights per year, and have never had an instance such as this.  I recently brought this incident up to the Marriott customer service line, and they very quickly filled out a incident report and advised that the hotel general manager would be contacting me.
+A day or two later I received an email from the director of operations thanking me for my stay and advising me that they have regular pest control throughout the course of the year, and that they had never had a incident of spiders or any other insects in the room I was staying.
+I am of the opinion that the director of operations basically invalidated this issue, and showed zero compassion for what had happened.  I will not be returning to this hotel, and would not recommend it to anyone who has...stayed at this hotel on October 23rd, seemingly the property was in average shape.  We checked in late that evening, and retired to bed shortly after.  The next morning as we were packing up to check out, we noticed a dead spider in the shower, and another spider in the bathroom area crawling around.  As I was getting dressed I noticed 5 red bumps on my left ankle, and wasn't sure what had happened.  The bumps got a bit bigger, so I did a google search on spider bites, and my marks matched the pictures I saw online.I stay in hotels 50-75 nights per year, and have never had an instance such as this.  I recently brought this incident up to the Marriott customer service line, and they very quickly filled out a incident report and advised that the hotel general manager would be contacting me.A day or two later I received an email from the director of operations thanking me for my stay and advising me that they have regular pest control throughout the course of the year, and that they had never had a incident of spiders or any other insects in the room I was staying.I am of the opinion that the director of operations basically invalidated this issue, and showed zero compassion for what had happened.  I will not be returning to this hotel, and would not recommend it to anyone who has concerns about cleanliness/sanitation while traveling.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>stayed at this hotel on October 23rd, seemingly the property was in average shape.  We checked in late that evening, and retired to bed shortly after.  The next morning as we were packing up to check out, we noticed a dead spider in the shower, and another spider in the bathroom area crawling around.  As I was getting dressed I noticed 5 red bumps on my left ankle, and wasn't sure what had happened.  The bumps got a bit bigger, so I did a google search on spider bites, and my marks matched the pictures I saw online.
+I stay in hotels 50-75 nights per year, and have never had an instance such as this.  I recently brought this incident up to the Marriott customer service line, and they very quickly filled out a incident report and advised that the hotel general manager would be contacting me.
+A day or two later I received an email from the director of operations thanking me for my stay and advising me that they have regular pest control throughout the course of the year, and that they had never had a incident of spiders or any other insects in the room I was staying.
+I am of the opinion that the director of operations basically invalidated this issue, and showed zero compassion for what had happened.  I will not be returning to this hotel, and would not recommend it to anyone who has...stayed at this hotel on October 23rd, seemingly the property was in average shape.  We checked in late that evening, and retired to bed shortly after.  The next morning as we were packing up to check out, we noticed a dead spider in the shower, and another spider in the bathroom area crawling around.  As I was getting dressed I noticed 5 red bumps on my left ankle, and wasn't sure what had happened.  The bumps got a bit bigger, so I did a google search on spider bites, and my marks matched the pictures I saw online.I stay in hotels 50-75 nights per year, and have never had an instance such as this.  I recently brought this incident up to the Marriott customer service line, and they very quickly filled out a incident report and advised that the hotel general manager would be contacting me.A day or two later I received an email from the director of operations thanking me for my stay and advising me that they have regular pest control throughout the course of the year, and that they had never had a incident of spiders or any other insects in the room I was staying.I am of the opinion that the director of operations basically invalidated this issue, and showed zero compassion for what had happened.  I will not be returning to this hotel, and would not recommend it to anyone who has concerns about cleanliness/sanitation while traveling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r187063769-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>187063769</t>
+  </si>
+  <si>
+    <t>12/08/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>This is a wonderful hotel. The rooms are huge with a very cool modern theme.  The bed was sooooo comfortable.  It is a foam bed and it was wonderful.  They also have a good breakfast.  It is within walking distance to the Cracker Barrel.  This allows you to park the larger vehicles there</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r185741297-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>185741297</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Great hotel for for business travel but don't expect too much</t>
+  </si>
+  <si>
+    <t>I travel into the Houston area often and honestly am surprised at how hard to is to find a great experience &amp; value for a business traveler. I have stayed several times at this particular hotel and have always been happy with what I can get for around $150 a night. Don't expect a 5-Star experience but it is a clean, safe and convenient place to stay. In my last visit may carpet was badly stained but that has been my only complaint. The rooms are spacious and the beds are as comfortable as hotel beds can be. The HVAC works well and the have Dish network and a decent TV. The workout facility is on par with hotel in this range... a few treadmill/ellipticals, nothing fancy. A solid 3 Stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I travel into the Houston area often and honestly am surprised at how hard to is to find a great experience &amp; value for a business traveler. I have stayed several times at this particular hotel and have always been happy with what I can get for around $150 a night. Don't expect a 5-Star experience but it is a clean, safe and convenient place to stay. In my last visit may carpet was badly stained but that has been my only complaint. The rooms are spacious and the beds are as comfortable as hotel beds can be. The HVAC works well and the have Dish network and a decent TV. The workout facility is on par with hotel in this range... a few treadmill/ellipticals, nothing fancy. A solid 3 Stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r175916886-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>175916886</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>Perfect everytime</t>
+  </si>
+  <si>
+    <t>I have stayed here 3 times, each time is perfect. I get a clean, modern room, close to everything &amp; a great hot breakfast. The staff is always friendly &amp; the bar specials are priced right (where else can you get 2 beers for $3?) The gym is small, but well equipped and fine for travel.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r164295516-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>164295516</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>OUTSTANDING for Groups</t>
+  </si>
+  <si>
+    <t>We booked 23 rooms for out of town guests for my sons recent Wedding.  Sixto, the Sales Manager was excellent to work with and extremely flexible as we planned for the event.  Once we and all our guests arrived we found an incredible staff that worked to meet all our requirements.  Not one of our guests had a bad thing to say about this hotel.  The rooms were SPOTLESS!!! The housekeeping staff is as good as any hotel I have ever stayed at.   The hotel is set back from the freeway by a block so there was no traffic noise and everyone got good rest on excellent mattresses that looked to be pretty new with no sag. Looks like the rooms had been recently upgraded, furniture was clean and comfortable and carpets were clean. We used king and double suites and all were equipped with microwave's and mini fridges. Breakfast was good and offered hot entrees and a waffle maker.  My wife and I will definitely stay here again when we visit Houston.  Lot's of good places to eat in the area. Located right next to Katy Mills Outlet Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We booked 23 rooms for out of town guests for my sons recent Wedding.  Sixto, the Sales Manager was excellent to work with and extremely flexible as we planned for the event.  Once we and all our guests arrived we found an incredible staff that worked to meet all our requirements.  Not one of our guests had a bad thing to say about this hotel.  The rooms were SPOTLESS!!! The housekeeping staff is as good as any hotel I have ever stayed at.   The hotel is set back from the freeway by a block so there was no traffic noise and everyone got good rest on excellent mattresses that looked to be pretty new with no sag. Looks like the rooms had been recently upgraded, furniture was clean and comfortable and carpets were clean. We used king and double suites and all were equipped with microwave's and mini fridges. Breakfast was good and offered hot entrees and a waffle maker.  My wife and I will definitely stay here again when we visit Houston.  Lot's of good places to eat in the area. Located right next to Katy Mills Outlet Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r154904553-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>154904553</t>
+  </si>
+  <si>
+    <t>03/17/2013</t>
+  </si>
+  <si>
+    <t>Nice place next to a really big mall</t>
+  </si>
+  <si>
+    <t>We've stayed here before and were glad to find a room available.  Very friendly, helpful, and efficient staff at check-in. Luggage carts available at entrance. Room was very clean and comfortable. Nice furniture and comfortable bed.  Room was very quiet in spite of being close to Interstate 10. The complimentary breakfast was very nice, good selection, hot food was hot and cold was cold.  Hotel shares a parking lot with a Denny's restaurant. It is very convient to Katy Mills, a very large mall with a Bass Pro Shops Outdoor World and a Rainforest Cafe.  We have had mixed experiences with SpringHill suites in the past, but this one is definitely a good one.  The hotel can fill up early and fast when there is a sporting event scheduled at the nearby Merrell center.  Also fills up nears shopping seasons.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We've stayed here before and were glad to find a room available.  Very friendly, helpful, and efficient staff at check-in. Luggage carts available at entrance. Room was very clean and comfortable. Nice furniture and comfortable bed.  Room was very quiet in spite of being close to Interstate 10. The complimentary breakfast was very nice, good selection, hot food was hot and cold was cold.  Hotel shares a parking lot with a Denny's restaurant. It is very convient to Katy Mills, a very large mall with a Bass Pro Shops Outdoor World and a Rainforest Cafe.  We have had mixed experiences with SpringHill suites in the past, but this one is definitely a good one.  The hotel can fill up early and fast when there is a sporting event scheduled at the nearby Merrell center.  Also fills up nears shopping seasons.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r150358758-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>150358758</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Efficient</t>
+  </si>
+  <si>
+    <t>Stayed here for a couple of nights while visiting family. Not the best location for the view is to parking lots and a lot of construction going on in the area. However, they did a great jog keeping the noise out and so it provided for a good nights rest. Not much of restaurants around just fast food but right next to the Katy Mills mall which would be good if you had time to go shopping. Nice, new, and contemporary decorations. Plenty of space with all the comforts you would need for a week stay. good attention to details and loved the extra room showers! When compared to the other hotels in it's category like Holiday Inn express, or courtyard marriott, it is definetly at the top of the list. No thrills, just efficient!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for a couple of nights while visiting family. Not the best location for the view is to parking lots and a lot of construction going on in the area. However, they did a great jog keeping the noise out and so it provided for a good nights rest. Not much of restaurants around just fast food but right next to the Katy Mills mall which would be good if you had time to go shopping. Nice, new, and contemporary decorations. Plenty of space with all the comforts you would need for a week stay. good attention to details and loved the extra room showers! When compared to the other hotels in it's category like Holiday Inn express, or courtyard marriott, it is definetly at the top of the list. No thrills, just efficient!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r149275354-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>149275354</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Stayed here the night before my wedding with some bridesmaids. It was perfect for the price. Clean, comfortable, hot water for showers. Breakfast was great, and the service was wonderful; I even called down at 1am to request a Sharpie and the attendant let me borrow his :) I'd stay here again if I'm ever in the area!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r148647517-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>148647517</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Christmas EVE/ birthday smash</t>
+  </si>
+  <si>
+    <t>Clean &amp; Comfortable room// Nice stay if you don't need to communicate with staff. incompetent staff-- slow service- no english speaking maids// NO BREAKFAST but dennys on lotif traveling to and fro and very tired, thiis is a comfortable sleep. make sure you get plenty of rest..because check out is at noon but they start knocking on doors at 9am// inconveinent because it was my birthday and especially since we were in the middle of a session and my partner could not resume his position.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r142249645-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>142249645</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel! No Hot Water!!</t>
+  </si>
+  <si>
+    <t>The rooms are very nice! Sat tv in the rooms offers an excellent choice of channels. Fridge and microwave make for cold drinks and a quick snack or heated meal. The breakfast is free but below average for a marriott springhill suites.The kicker was the lack of HOT water! After informing the front desk they informed us they were aware of the situation! We also found out from the front desk clerk on duty that even though this is a new hotel, tankless water heaters were not installed! They went with a tanked water heater! WHY?? Obviously they cheaped out on the essentials for providing a comfortable accomodation for the road weary! The lack of hot water is completely unacceptable!! MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are very nice! Sat tv in the rooms offers an excellent choice of channels. Fridge and microwave make for cold drinks and a quick snack or heated meal. The breakfast is free but below average for a marriott springhill suites.The kicker was the lack of HOT water! After informing the front desk they informed us they were aware of the situation! We also found out from the front desk clerk on duty that even though this is a new hotel, tankless water heaters were not installed! They went with a tanked water heater! WHY?? Obviously they cheaped out on the essentials for providing a comfortable accomodation for the road weary! The lack of hot water is completely unacceptable!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r135969051-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>135969051</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Great Choice on Katy Mills Property</t>
+  </si>
+  <si>
+    <t>I picked this hotel entirely because I was planning on spending all day at Katy Mills Outlet Mall (I gave in to my wife on this) before going to a conference at another property north of Houston.  The hotel sits on one of the service drives leading to Katy Mills.  There is also a Wal-Mart SuperCenter on one end of the block and an HEB grocery store 3 blocks the other direction.  I usually like to pick up snacks or other supplies when I'm on a road trip.The hotel was super clean, the rooms nice, Free Wi-Fi is always nice, staff was good - no real complaints.  Pool looked nice, but a bit crowded.  The free breakfast was a bit sparse and seating area was a bit crowded, but there is a Denny's adjacent to the property if you want a full, sit-down breakfast.  (It's also a bit weird to complain about a free breakfast...)Great value - there is a Residence Inn in the same Katy Mills complex, but Springhill was about $20 less, so I opted with this property.  Residence Rooms are larger, but not by much - at least not at this one.I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I picked this hotel entirely because I was planning on spending all day at Katy Mills Outlet Mall (I gave in to my wife on this) before going to a conference at another property north of Houston.  The hotel sits on one of the service drives leading to Katy Mills.  There is also a Wal-Mart SuperCenter on one end of the block and an HEB grocery store 3 blocks the other direction.  I usually like to pick up snacks or other supplies when I'm on a road trip.The hotel was super clean, the rooms nice, Free Wi-Fi is always nice, staff was good - no real complaints.  Pool looked nice, but a bit crowded.  The free breakfast was a bit sparse and seating area was a bit crowded, but there is a Denny's adjacent to the property if you want a full, sit-down breakfast.  (It's also a bit weird to complain about a free breakfast...)Great value - there is a Residence Inn in the same Katy Mills complex, but Springhill was about $20 less, so I opted with this property.  Residence Rooms are larger, but not by much - at least not at this one.I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r133649659-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>133649659</t>
+  </si>
+  <si>
+    <t>07/06/2012</t>
+  </si>
+  <si>
+    <t>OK Stay</t>
+  </si>
+  <si>
+    <t>Spent one night here on 05JUL2012. Bed was comfortable, room was quite and clean. Was told by front desk that breakfast was until 10 am. Arrived at 0920 to find the breakfast lady had already broken down the area and was told in broken english that it was 0930 and breakfast was over. Will stay elsewhere if I am in the area agian. Hotel is new but staff ruined the stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r127442749-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>127442749</t>
+  </si>
+  <si>
+    <t>04/07/2012</t>
+  </si>
+  <si>
+    <t>Good Clean Fun...but NOISY</t>
+  </si>
+  <si>
+    <t>I stayed at this Marriott last week for two nights.  The main door was locked when I came in from my very delayed flight.  I was buzzed in and was check in quickly.  My room was nice, average for Marriott standards, I fell asleep right away, I was so tired.  I was woken up the next morning from all the highway traffic.  My room was on 3rd floor and faced the pool, but I could still hear the semis and horns.  My second night, there was a group of little kids (5-10 years old) playing in the pool. Shrieking and splashing, it sounded like they were having a blast.  However it was after 11pm.  I am not sure what time the pool closed, but seriously A: shouldnt they be in bed? and B: why can i hear them through my closed window?  The hotel is basically in the Mall's parking lot and there isn't much else around.  It is close to I10, but other than that, unless you are going specifically to go to Katy Mills stay somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this Marriott last week for two nights.  The main door was locked when I came in from my very delayed flight.  I was buzzed in and was check in quickly.  My room was nice, average for Marriott standards, I fell asleep right away, I was so tired.  I was woken up the next morning from all the highway traffic.  My room was on 3rd floor and faced the pool, but I could still hear the semis and horns.  My second night, there was a group of little kids (5-10 years old) playing in the pool. Shrieking and splashing, it sounded like they were having a blast.  However it was after 11pm.  I am not sure what time the pool closed, but seriously A: shouldnt they be in bed? and B: why can i hear them through my closed window?  The hotel is basically in the Mall's parking lot and there isn't much else around.  It is close to I10, but other than that, unless you are going specifically to go to Katy Mills stay somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r126584875-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>126584875</t>
+  </si>
+  <si>
+    <t>03/24/2012</t>
+  </si>
+  <si>
+    <t>Pretty Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can't rip this hotel too bad, but with the exception that I'm a slave to Marriott points, I'd probably pick a different spot. The people are friendly, but the location isn't near much of anything, and the hotels a bit worn, to be honest. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r124770903-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>124770903</t>
+  </si>
+  <si>
+    <t>02/18/2012</t>
+  </si>
+  <si>
+    <t>Newly updated</t>
+  </si>
+  <si>
+    <t>Just visited the Springhill Suites in Katy, Texas again. I've always enjoyed my stays here, and I know I'll be  back. This time around it looks like they've remodeled the whole place. The dining area, and even the rooms (at least the room I was in) have new furniture and carpet. One thing I really like about this hotel is that it is an easy off/ on from the I-10 expressway. It's also close to many restaurants and shopping. Only complaint I have is that the exercise bike in the workout room seems worn out. But I was happy to see that they still had their hot tub and pool open in February.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Just visited the Springhill Suites in Katy, Texas again. I've always enjoyed my stays here, and I know I'll be  back. This time around it looks like they've remodeled the whole place. The dining area, and even the rooms (at least the room I was in) have new furniture and carpet. One thing I really like about this hotel is that it is an easy off/ on from the I-10 expressway. It's also close to many restaurants and shopping. Only complaint I have is that the exercise bike in the workout room seems worn out. But I was happy to see that they still had their hot tub and pool open in February.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r118540402-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>118540402</t>
+  </si>
+  <si>
+    <t>09/24/2011</t>
+  </si>
+  <si>
+    <t>Always clean, always a great stay.</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel in Katy, TX about 15 times in the last couple years. The hotel is always clean and the rooms are comfortable. I'm actually thinking about changing my mattress at home to the same ones they use in their rooms. The hotel features a small work out room and an outdoor swimming pool with hot tub. The breakfast is just the typical hotel breakfast, but the coffee is really good. They also feature a happy hour for the guests in one of the conference rooms. This is a big bonus for us weary travelers and offers a nice bit of relaxation after a long day at work. The staff has always been prompt and friendly and have always been helpful with restaurant recommendations.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>I've stayed at this hotel in Katy, TX about 15 times in the last couple years. The hotel is always clean and the rooms are comfortable. I'm actually thinking about changing my mattress at home to the same ones they use in their rooms. The hotel features a small work out room and an outdoor swimming pool with hot tub. The breakfast is just the typical hotel breakfast, but the coffee is really good. They also feature a happy hour for the guests in one of the conference rooms. This is a big bonus for us weary travelers and offers a nice bit of relaxation after a long day at work. The staff has always been prompt and friendly and have always been helpful with restaurant recommendations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r96975825-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>96975825</t>
+  </si>
+  <si>
+    <t>02/17/2011</t>
+  </si>
+  <si>
+    <t>First time at a Springhill Suites, I will be back</t>
+  </si>
+  <si>
+    <t>Great hotel in a perfect location for the business traveler. The proximity to I10 and lots of shopping and eating choices help fill any down time you may have. The hotel itself is very well kept and the staff is very friendly. Breakfast is pretty standard hot/cold fare bu the addition of prepared oatmeal with toppings was a nice touch. I would recommend this hotel for a business or overnight stay but not a vacation stay. Two problems on my stay, the internet was horrible and if it worked slow, and I had a burned out light on the desk lamp.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r96237275-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>96237275</t>
+  </si>
+  <si>
+    <t>02/11/2011</t>
+  </si>
+  <si>
+    <t>Pretty Standard Spring Hill and that is a good thing</t>
+  </si>
+  <si>
+    <t>This place is just what you expect to find at Spring Hill Suites, nice clean comfortable rooms and friendly staff. Great location if your business takes you to the west side of Houston. Lots of nearby restaurants and entertainment nearby. Nice Bass Pro Shop right next door for the outdoor types and a huge outlet mall as well. This Spring Hill is a little older than most I have stayed out based on room design, but it is very well maintained and looks like brand new. My one complaint, and it is the same one I have at all of these, is the cheap free breakfast. It is breakfast done half hearted. I really don’t like eggs that come in a perfect circle shape or pre-packaged foods. I am a huge Marriott fan and stay in them all the time. I wish they would take Hiltons Garden Inns example and put in a real restaurant that serves a real fresh breakfast. On that note there is a HGI next door where you can buy breakfast, a Denny’s in the parking lot, and a Starbucks right behind the HGI. While there is plenty of breakfast places close by it is not optimal when it is 27 outside with rain.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is just what you expect to find at Spring Hill Suites, nice clean comfortable rooms and friendly staff. Great location if your business takes you to the west side of Houston. Lots of nearby restaurants and entertainment nearby. Nice Bass Pro Shop right next door for the outdoor types and a huge outlet mall as well. This Spring Hill is a little older than most I have stayed out based on room design, but it is very well maintained and looks like brand new. My one complaint, and it is the same one I have at all of these, is the cheap free breakfast. It is breakfast done half hearted. I really don’t like eggs that come in a perfect circle shape or pre-packaged foods. I am a huge Marriott fan and stay in them all the time. I wish they would take Hiltons Garden Inns example and put in a real restaurant that serves a real fresh breakfast. On that note there is a HGI next door where you can buy breakfast, a Denny’s in the parking lot, and a Starbucks right behind the HGI. While there is plenty of breakfast places close by it is not optimal when it is 27 outside with rain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r20275268-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>20275268</t>
+  </si>
+  <si>
+    <t>09/22/2008</t>
+  </si>
+  <si>
+    <t>Springhill Suites Houston Maty Mills Was Great</t>
+  </si>
+  <si>
+    <t>Large rooms, high quality beds and furnishings, well maintained and a higher than average service level from the staff. Young hard working personnel throughout the hotel were especially friendly and helpful. Free breakfast was good but hot items were limited to the pre-fabricated sausage and eggs that are common to this chain. Free internet in rooms and free WIFI in common area. Small but good exercise room. Pool is very small. Located just off Interstate 10 Freeway, next to the large Katy Mills shopping mall.</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r19624567-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>19624567</t>
+  </si>
+  <si>
+    <t>09/01/2008</t>
+  </si>
+  <si>
+    <t>Nice little hotel</t>
+  </si>
+  <si>
+    <t>Nice clean hotel in Katy.  Good sized suite, clean and well kept.  I was here on business and it met my needs.  Nice free breakfast spread, but the hotel advertises free coffee in the lobby 24 hours a day--not so, each night I went down the coffee pots were unplugged (with old cold coffee).</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r13079916-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>13079916</t>
+  </si>
+  <si>
+    <t>01/28/2008</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>We were visiting family in town and had a great stay.  The room was clean, the bedsheets and bedspreads were well taken care of.  They had a great breakfast, free parking and good maid service.  The staff was helpful and friendly. They had available onsite paid laundry with good, clean machines.  If we ever returned we'd be staying there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r4823394-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>4823394</t>
+  </si>
+  <si>
+    <t>03/30/2006</t>
+  </si>
+  <si>
+    <t>Pleasant Stay at Springhill</t>
+  </si>
+  <si>
+    <t>This hotel is only 9 months old, but they're always full.  The rooms are great.  Oversized as advertised.  The sound dampening is great - like being in a vault.  Only problem is there's not much to do around here but shop at Katy Mills...</t>
+  </si>
+  <si>
+    <t>March 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1706,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1738,3870 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>119</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>217</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>226</v>
+      </c>
+      <c r="J30" t="s">
+        <v>227</v>
+      </c>
+      <c r="K30" t="s">
+        <v>228</v>
+      </c>
+      <c r="L30" t="s">
+        <v>229</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>230</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
+        <v>242</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" t="s">
+        <v>247</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>217</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>217</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>259</v>
+      </c>
+      <c r="J36" t="s">
+        <v>260</v>
+      </c>
+      <c r="K36" t="s">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s">
+        <v>262</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>263</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>271</v>
+      </c>
+      <c r="J38" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" t="s">
+        <v>273</v>
+      </c>
+      <c r="L38" t="s">
+        <v>274</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>275</v>
+      </c>
+      <c r="O38" t="s">
+        <v>119</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>277</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" t="s">
+        <v>280</v>
+      </c>
+      <c r="L39" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>282</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" t="s">
+        <v>288</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>289</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s">
+        <v>294</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>295</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>298</v>
+      </c>
+      <c r="J42" t="s">
+        <v>299</v>
+      </c>
+      <c r="K42" t="s">
+        <v>300</v>
+      </c>
+      <c r="L42" t="s">
+        <v>301</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>302</v>
+      </c>
+      <c r="O42" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" t="s">
+        <v>305</v>
+      </c>
+      <c r="K43" t="s">
+        <v>306</v>
+      </c>
+      <c r="L43" t="s">
+        <v>307</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>308</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" t="s">
+        <v>314</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>315</v>
+      </c>
+      <c r="O44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>317</v>
+      </c>
+      <c r="J45" t="s">
+        <v>318</v>
+      </c>
+      <c r="K45" t="s">
+        <v>319</v>
+      </c>
+      <c r="L45" t="s">
+        <v>320</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>321</v>
+      </c>
+      <c r="O45" t="s">
+        <v>119</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>324</v>
+      </c>
+      <c r="J46" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s">
+        <v>327</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>328</v>
+      </c>
+      <c r="O46" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>335</v>
+      </c>
+      <c r="O48" t="s">
+        <v>119</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>342</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>343</v>
+      </c>
+      <c r="J49" t="s">
+        <v>344</v>
+      </c>
+      <c r="K49" t="s">
+        <v>345</v>
+      </c>
+      <c r="L49" t="s">
+        <v>346</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>347</v>
+      </c>
+      <c r="O49" t="s">
+        <v>94</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>359</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>362</v>
+      </c>
+      <c r="J52" t="s">
+        <v>363</v>
+      </c>
+      <c r="K52" t="s">
+        <v>364</v>
+      </c>
+      <c r="L52" t="s">
+        <v>365</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>359</v>
+      </c>
+      <c r="O52" t="s">
+        <v>94</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>366</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>367</v>
+      </c>
+      <c r="J53" t="s">
+        <v>368</v>
+      </c>
+      <c r="K53" t="s">
+        <v>369</v>
+      </c>
+      <c r="L53" t="s">
+        <v>370</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>371</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>373</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>374</v>
+      </c>
+      <c r="J54" t="s">
+        <v>375</v>
+      </c>
+      <c r="K54" t="s">
+        <v>376</v>
+      </c>
+      <c r="L54" t="s">
+        <v>377</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>379</v>
+      </c>
+      <c r="J55" t="s">
+        <v>380</v>
+      </c>
+      <c r="K55" t="s">
+        <v>381</v>
+      </c>
+      <c r="L55" t="s">
+        <v>382</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>383</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>385</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>386</v>
+      </c>
+      <c r="J56" t="s">
+        <v>387</v>
+      </c>
+      <c r="K56" t="s">
+        <v>388</v>
+      </c>
+      <c r="L56" t="s">
+        <v>389</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>390</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>392</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>393</v>
+      </c>
+      <c r="J57" t="s">
+        <v>394</v>
+      </c>
+      <c r="K57" t="s">
+        <v>395</v>
+      </c>
+      <c r="L57" t="s">
+        <v>396</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>397</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>398</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>399</v>
+      </c>
+      <c r="J58" t="s">
+        <v>400</v>
+      </c>
+      <c r="K58" t="s">
+        <v>401</v>
+      </c>
+      <c r="L58" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>397</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>404</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>405</v>
+      </c>
+      <c r="J59" t="s">
+        <v>406</v>
+      </c>
+      <c r="K59" t="s">
+        <v>407</v>
+      </c>
+      <c r="L59" t="s">
+        <v>408</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>409</v>
+      </c>
+      <c r="O59" t="s">
+        <v>94</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>411</v>
+      </c>
+      <c r="J60" t="s">
+        <v>412</v>
+      </c>
+      <c r="K60" t="s">
+        <v>413</v>
+      </c>
+      <c r="L60" t="s">
+        <v>414</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>415</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>416</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>417</v>
+      </c>
+      <c r="J61" t="s">
+        <v>418</v>
+      </c>
+      <c r="K61" t="s">
+        <v>419</v>
+      </c>
+      <c r="L61" t="s">
+        <v>420</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>421</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>422</v>
+      </c>
+      <c r="J62" t="s">
+        <v>423</v>
+      </c>
+      <c r="K62" t="s">
+        <v>424</v>
+      </c>
+      <c r="L62" t="s">
+        <v>425</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>426</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_588.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_588.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="677">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r599301417-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>551004</t>
+  </si>
+  <si>
+    <t>599301417</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>Great Accommodation for the Money -</t>
+  </si>
+  <si>
+    <t>We came to Katy Mills for a DCI (Drum Corps International) show. By the time we pulled in we were crabby and pretty zonked from the 4 1/2 hours drive (from Denton). The hotel cured us of our funk; it was really a lot more than what we thought it would be. The parking was ample, the desk (etc) staff was efficient and friendly and the room was really nice. (Included) breakfast was good with proteins to choose from not just carbs. The pool was nice and, like I said, the rooms far better than I thought they'd be. I'm truly not sure where some of these other reviews came from but we're a very well traveled group (7) and we were pretty impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We came to Katy Mills for a DCI (Drum Corps International) show. By the time we pulled in we were crabby and pretty zonked from the 4 1/2 hours drive (from Denton). The hotel cured us of our funk; it was really a lot more than what we thought it would be. The parking was ample, the desk (etc) staff was efficient and friendly and the room was really nice. (Included) breakfast was good with proteins to choose from not just carbs. The pool was nice and, like I said, the rooms far better than I thought they'd be. I'm truly not sure where some of these other reviews came from but we're a very well traveled group (7) and we were pretty impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r595838827-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>595838827</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>Poor management</t>
+  </si>
+  <si>
+    <t>I cannot write a review of the facilities, because the management overbooked and bumped me. I am a Marriott Elite member, checked in on the new app in the afternoon, and when I arrived at 10:30 pm after travelling, they said they had no rooms despite my reservation and check-in. They did offer to have me stay at a lower quality hotel nearby "at no additional cost". No, thank you. I would not stay with such an unprofessional property. Ridiculous.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r589960827-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>551004</t>
-  </si>
-  <si>
     <t>589960827</t>
   </si>
   <si>
@@ -196,9 +238,6 @@
   </si>
   <si>
     <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r555208500-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
@@ -226,6 +265,42 @@
 We were able to check-in early per request during online reservation.  When we entered our room, the room smelled very muggy/ammonia-like (very bad urine smell).  We tried cranking up the AC for a good 5 hours before we decided that the smell was still there.  We called the front desk who answered promptly.  A maintenance gentleman came up with a bottle of Febreeze.  We asked him if he smelled that "pee" smell, he said he didn't smell anything.  We told him our situation, that we tried turning up the AC hoping the smell would go away.  The gentleman misunderstood and stated that all the AC are newly installed.  We walked him near an area we thought smelled very strongly but the gentleman was fixated on the AC.  He took the AC cover off and sprayed the Febreeze for a good 2 minutes on the AC and on the carpet area around.  He sprayed enough Febreeze to...We are Silver Elite members for Marriott rewards. We originally took the survey after our stay but our 3 star rating never got posted. We contacted Customer Care twice (sept and oct 2017) and said they will get back to us within 5 business days but never heard back. Was very disappointed that we took the time to review the hotel just to be ignored. Therefore, the reviews on marriott.com are filtered and not 100% accurate. Hotel itself is 3-star. Here's our original review We were able to check-in early per request during online reservation.  When we entered our room, the room smelled very muggy/ammonia-like (very bad urine smell).  We tried cranking up the AC for a good 5 hours before we decided that the smell was still there.  We called the front desk who answered promptly.  A maintenance gentleman came up with a bottle of Febreeze.  We asked him if he smelled that "pee" smell, he said he didn't smell anything.  We told him our situation, that we tried turning up the AC hoping the smell would go away.  The gentleman misunderstood and stated that all the AC are newly installed.  We walked him near an area we thought smelled very strongly but the gentleman was fixated on the AC.  He took the AC cover off and sprayed the Febreeze for a good 2 minutes on the AC and on the carpet area around.  He sprayed enough Febreeze to dampen the carpet around the area.  Febreeze covered the overall smell of the room for a couple hours until we noticed the urine/ammonia smell again.  We did not bother calling front desk because we felt like we were annoying them.  Instead we checked-out earlyMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r543247155-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>543247155</t>
+  </si>
+  <si>
+    <t>11/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 sleepless nights </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I wasn’t able to sleep on the sheets.  Kinda hard to enjoy probably the last thanksgiving ever with my dad when I was exhausted from sleeping on sheets that felt like a whole box of detergent was used in cleaning.  There are better hotels close by.  Stay away from this place.  Will never go back ever.  </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r533407892-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>533407892</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Cancellation Fee Rejection??</t>
+  </si>
+  <si>
+    <t>I am a Platinum member with Marriott.  When i couldn't make my reservation at Springhill Suites in Katy Mills(I stayed at another Marriott property), i called the 800 line and received a cancellation confirmation email.  The charge showed up on my cc statement and when i called the FIRST time, i was told a credit was coming.  A week later, no credit so i called Marriott back and was told that Cassandra the Manager at Springhill Suites rejected my cancellation.  Marriott confirmed my cancellation and a local manager has the rights to decline the cancellation.  BUYER BEWARE.  Why did i call Marriott in the first place?  NO TRUST</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r529197914-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -288,6 +363,48 @@
     <t>Three rooms switches in less than six hours. The first room had soiled linens with holes burnt in them. I requested to be moved. I was placed in another room which was bug infested. Bugs in between the linens, bugs on coming out of the air conditioner when turned on, bugs on the nightstand. Needless to say not the room to rest at ease so I requested to be moved, showed the management the bugs all over. Third time really is a charm. They put in a room with a single bed when the original accomodation was two queens. They said this was all they had by this point. Third room was on the first floor, suite immediately next to pool exit. Was fed up and finally left, had to get another Uber and other accomodations after playing hotel hop.Unacceptable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r506913529-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>506913529</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Book at your own risk!</t>
+  </si>
+  <si>
+    <t>Stayed on the night of July 24th with checkout on the 25th.  Front desk service was horrible.  Was not greeted upon arrival, as apparently there were some technical issues that night within their computer system.  While front desk was looking for the room, the manager (Cassandra Liendo) mentioned room 209 was vacant, to which the front desk person in TRAINING said that she thought the room was occupied.  Did not pay much attention to this, but went along with it, as the MANAGER said that the room reservation was fine.  Upon arriving to the room, an embarrassment...  The room was occupied and had to apologize profusely for the entry authorized by front desk.  Went back to front desk to mention this mishap and once we made it to front desk, we only received a half apology, as the technical issues took precedent over customer service.  After the quick apology with some mentions of dirty rooms, which we had to make sure to say NO DIRTY ROOMS PLEASE, because we thought they were going to put us in one!  At this point, there was no telling whether what kind of room we were going to get.  Next go around, we made sure to ask someone from front desk to come with us to enter the room and LUCKILY we got a decent room.  Typically, this kind of situation would cause us to go to next best hotel next door, but we...Stayed on the night of July 24th with checkout on the 25th.  Front desk service was horrible.  Was not greeted upon arrival, as apparently there were some technical issues that night within their computer system.  While front desk was looking for the room, the manager (Cassandra Liendo) mentioned room 209 was vacant, to which the front desk person in TRAINING said that she thought the room was occupied.  Did not pay much attention to this, but went along with it, as the MANAGER said that the room reservation was fine.  Upon arriving to the room, an embarrassment...  The room was occupied and had to apologize profusely for the entry authorized by front desk.  Went back to front desk to mention this mishap and once we made it to front desk, we only received a half apology, as the technical issues took precedent over customer service.  After the quick apology with some mentions of dirty rooms, which we had to make sure to say NO DIRTY ROOMS PLEASE, because we thought they were going to put us in one!  At this point, there was no telling whether what kind of room we were going to get.  Next go around, we made sure to ask someone from front desk to come with us to enter the room and LUCKILY we got a decent room.  Typically, this kind of situation would cause us to go to next best hotel next door, but we were too tired to jump around.  We made sure to put the top lock on the door, in case front desk decided to send someone else to the room by mistake of the manager...The front desk service left us so sour of our experience that we found breakfast to be average at best...  Upon checkout, we mentioned the bad experience we had because of what happened the other night and was only given a 10% discount and an apology.  Frankly, we thought we should have been given a free night due to the horrible experience we experienced.  This is a shame the Marriott would allow this kind of service at their hotels.  I have traveled to many other Marriott properties around the world and never had this kind of experience in their other properties.  This was our first time and last time staying at this property and the manager (Cassandra Liendo) could use some retraining in the area of customer service, when there are technical issues present at the hotel...  Book this property at your own risk!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Stayed on the night of July 24th with checkout on the 25th.  Front desk service was horrible.  Was not greeted upon arrival, as apparently there were some technical issues that night within their computer system.  While front desk was looking for the room, the manager (Cassandra Liendo) mentioned room 209 was vacant, to which the front desk person in TRAINING said that she thought the room was occupied.  Did not pay much attention to this, but went along with it, as the MANAGER said that the room reservation was fine.  Upon arriving to the room, an embarrassment...  The room was occupied and had to apologize profusely for the entry authorized by front desk.  Went back to front desk to mention this mishap and once we made it to front desk, we only received a half apology, as the technical issues took precedent over customer service.  After the quick apology with some mentions of dirty rooms, which we had to make sure to say NO DIRTY ROOMS PLEASE, because we thought they were going to put us in one!  At this point, there was no telling whether what kind of room we were going to get.  Next go around, we made sure to ask someone from front desk to come with us to enter the room and LUCKILY we got a decent room.  Typically, this kind of situation would cause us to go to next best hotel next door, but we...Stayed on the night of July 24th with checkout on the 25th.  Front desk service was horrible.  Was not greeted upon arrival, as apparently there were some technical issues that night within their computer system.  While front desk was looking for the room, the manager (Cassandra Liendo) mentioned room 209 was vacant, to which the front desk person in TRAINING said that she thought the room was occupied.  Did not pay much attention to this, but went along with it, as the MANAGER said that the room reservation was fine.  Upon arriving to the room, an embarrassment...  The room was occupied and had to apologize profusely for the entry authorized by front desk.  Went back to front desk to mention this mishap and once we made it to front desk, we only received a half apology, as the technical issues took precedent over customer service.  After the quick apology with some mentions of dirty rooms, which we had to make sure to say NO DIRTY ROOMS PLEASE, because we thought they were going to put us in one!  At this point, there was no telling whether what kind of room we were going to get.  Next go around, we made sure to ask someone from front desk to come with us to enter the room and LUCKILY we got a decent room.  Typically, this kind of situation would cause us to go to next best hotel next door, but we were too tired to jump around.  We made sure to put the top lock on the door, in case front desk decided to send someone else to the room by mistake of the manager...The front desk service left us so sour of our experience that we found breakfast to be average at best...  Upon checkout, we mentioned the bad experience we had because of what happened the other night and was only given a 10% discount and an apology.  Frankly, we thought we should have been given a free night due to the horrible experience we experienced.  This is a shame the Marriott would allow this kind of service at their hotels.  I have traveled to many other Marriott properties around the world and never had this kind of experience in their other properties.  This was our first time and last time staying at this property and the manager (Cassandra Liendo) could use some retraining in the area of customer service, when there are technical issues present at the hotel...  Book this property at your own risk!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r497478746-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>497478746</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>The Most Comfortable Hotel Bed I Ever Slept in</t>
+  </si>
+  <si>
+    <t>The staff are very friendly and attentive and the property was very clean and up to date, The rooms are spacious and very nice. I normally have a back ache after a nights sleep in a hotel bed but not with this bed. It was the most comfortable hotel bed I ever slept in. Free breakfast was also a nice bonus! Will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r486461415-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -306,9 +423,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>The only reason I didn't give more stars are for 2 reasonsGFI plug in bathroom had been painted and the plug no longer worked. Tried the test &amp; reset buttons but wouldn't work. As everyone knows, funding another plug that isn't behind the bed or tv is difficult. Plus no mirror 2nd reason, lobby smelled of smoke. Smoking area was by front door instead of 25' or more thus smoke came into the lobby. We are not smokers and have never been smokers so our sensitivity to smoke is heighten. The room was clean, the small living area was just right with a large sofa bed &amp; work desk. TV was located so you could watch tv in the bedroom or living area. Small refrigerator and sink area with microwave More</t>
   </si>
   <si>
@@ -345,6 +459,45 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r480328602-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>480328602</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Very Clean</t>
+  </si>
+  <si>
+    <t>We checked in Sat to visit with family in town. Awesome desk clerks, very clean and quiet rooms. Plenty nice clean towels. Breakfast was good and the area spotless! We will definitely stay there again!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r471145842-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>471145842</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>An average stay</t>
+  </si>
+  <si>
+    <t>Stayed here for a week on a business trip.  Stay was OK, nothing really wrong with it. The breakfast was usually not stocked very well and after 3 mornings, I just quit going and picked something up after I left the hotel. I wasn't there during the afternoon snack time, so can't comment on that.  My room was clean, but had an awful shower head, that was only at about 50% output - never could get all the water to divert from the faucet to the shower.  Again, nothing to cause me not to come back, but nothing stood out to necessarily pick it over other options in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for a week on a business trip.  Stay was OK, nothing really wrong with it. The breakfast was usually not stocked very well and after 3 mornings, I just quit going and picked something up after I left the hotel. I wasn't there during the afternoon snack time, so can't comment on that.  My room was clean, but had an awful shower head, that was only at about 50% output - never could get all the water to divert from the faucet to the shower.  Again, nothing to cause me not to come back, but nothing stood out to necessarily pick it over other options in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r464381376-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -360,9 +513,6 @@
     <t>One of the nicer Springhill Suites with the additional benefit of appetizers and beverages in the evening as competition has increased in the area.I got a great rate with the same level of quality service and a clean and comfortable room.Will stay there again the next time.</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r462985695-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -381,9 +531,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r442349877-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -405,6 +552,53 @@
     <t>Once a year while on business in the area I have stayed at this hotel since it opened.  As a Lifetime Platinum Elite, the reception desk was lacking in service and 3 people were standing around talking instead of paying attention to customers.I asked for a room not facing traffic as best as possible as I don't sleep very well. I was assured that I had a quiet room. All night I was up listening to road traffic. The phones in my room did not work, the carpet is stained near the sink and very unappealing.Most disappointed in this stay and will look for a different Marriott the next time around.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r430007558-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>430007558</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>The Roach motel with No management</t>
+  </si>
+  <si>
+    <t>I've stayed in hotels about 200 nights this year, about 130 nights at Marriott hotels, and this is the worst hotel I've stayed in this year.  If I could get my money back I would.
+When I first checked into the hotel I wasn't welcomed even though I'm a Marriott Platinum member.  It's not a big deal, but I believe everyone should be welcomed especially loyal customers.  In addition, we were attending a wedding, so the party had rented multiple rooms.
+The first thing we saw when we got to our room was a silverfish run across the bed and then a roach run across the floor. We are in south Texas so bugs are expected.  After disposing of the bugs I must have run across their buddies because I had another silverfish and another roach.  
+On my second night is when the roach parade started.  I killed 8 roaches running around different places in the room; it was like a slaughter.  In the morning I notified the front desk clerk of all the roaches and I was informed she was new and couldn't help me, but she would notify the manager.  I'm not sure if the manager was ever made aware of the situation, because the manager never contacted me.  I was not offered to move to a new room, but I’m not sure it would have made any difference.  In addition, as far as I know nothing...I've stayed in hotels about 200 nights this year, about 130 nights at Marriott hotels, and this is the worst hotel I've stayed in this year.  If I could get my money back I would.When I first checked into the hotel I wasn't welcomed even though I'm a Marriott Platinum member.  It's not a big deal, but I believe everyone should be welcomed especially loyal customers.  In addition, we were attending a wedding, so the party had rented multiple rooms.The first thing we saw when we got to our room was a silverfish run across the bed and then a roach run across the floor. We are in south Texas so bugs are expected.  After disposing of the bugs I must have run across their buddies because I had another silverfish and another roach.  On my second night is when the roach parade started.  I killed 8 roaches running around different places in the room; it was like a slaughter.  In the morning I notified the front desk clerk of all the roaches and I was informed she was new and couldn't help me, but she would notify the manager.  I'm not sure if the manager was ever made aware of the situation, because the manager never contacted me.  I was not offered to move to a new room, but I’m not sure it would have made any difference.  In addition, as far as I know nothing was ever done to my room to fumigate the bugs.   When I left at 445 for the wedding the room had not been cleaned nor purge of roaches.The final morning (I stayed 3-nights) I woke to find a nice size roach dead next to one of the beds and as we were packing to leave a couple more ran across the room.  I went down to the front desk again to inquire with the manager about the roach issue.  The front desk clerk (different from the previous day) said the manager wasn't at work.  I explained the roach issue and she said she would talk to the manager and have them call me.  I never received a call from the manager.I don’t know if it’s poor management or communication issue, but I tend to believe it’s a poor management issue.  After checking out of the hotel, I contacted Marriott Corporation and via their website.  I received an email back form Marriott Customer Care:Hello I am sorry your stay at the SpringHill Suites Houston Katy Mills was not the Marriott experience you deserve.I shared the details you provided with the executive team at the hotel. They will take action and respond to you soon. I ask that you allow us three to five business days to resolve this issue.As a Platinum Marriott Elite Member, we value your loyalty. Please accept our sincere apologies for this disappointing experience.You can count on Marriott to improve your experience in the future.Safe travels,Rashada SpencerMarriott Customer CareYet I have not heard from the hotel since I returned.  It’s been almost two weeks and not a word from the Springhill Suites Marriott management or owner, which is actually a Marriott Managed hotel by Nayosha LTD which is owned by Anil U Patel.  Just to solidify this is probably poor management, my wife went to purchase a drink from the snack shop, the clerk at the front desk said she couldn't sell anything because she didn't know the price and the manager was away. There are no vending machines, so without a manager you can't buy anything.  Other features of the hotel are very uninspiring and remind me of a Super 8.  The rooms are cheap furnishing with and ugly green paint.  The room we were in had a very odd layout, unlike other Springhill Suites I’ve stayed at.  It does have a microwave and small dorm Fridge. I’ve stayed in Motel 6’s which had nicer decors.  The breakfast in the morning is your standard continental breakfast, which was really nothing special.  The coffee one morning was cold. +I've stayed at several Springhill suites in the past, but never one this poorly run.  Their are several other Marriott properties nearby, so unless they are owned by the same poorly run management group I would stay at them if you have an option.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>I've stayed in hotels about 200 nights this year, about 130 nights at Marriott hotels, and this is the worst hotel I've stayed in this year.  If I could get my money back I would.
+When I first checked into the hotel I wasn't welcomed even though I'm a Marriott Platinum member.  It's not a big deal, but I believe everyone should be welcomed especially loyal customers.  In addition, we were attending a wedding, so the party had rented multiple rooms.
+The first thing we saw when we got to our room was a silverfish run across the bed and then a roach run across the floor. We are in south Texas so bugs are expected.  After disposing of the bugs I must have run across their buddies because I had another silverfish and another roach.  
+On my second night is when the roach parade started.  I killed 8 roaches running around different places in the room; it was like a slaughter.  In the morning I notified the front desk clerk of all the roaches and I was informed she was new and couldn't help me, but she would notify the manager.  I'm not sure if the manager was ever made aware of the situation, because the manager never contacted me.  I was not offered to move to a new room, but I’m not sure it would have made any difference.  In addition, as far as I know nothing...I've stayed in hotels about 200 nights this year, about 130 nights at Marriott hotels, and this is the worst hotel I've stayed in this year.  If I could get my money back I would.When I first checked into the hotel I wasn't welcomed even though I'm a Marriott Platinum member.  It's not a big deal, but I believe everyone should be welcomed especially loyal customers.  In addition, we were attending a wedding, so the party had rented multiple rooms.The first thing we saw when we got to our room was a silverfish run across the bed and then a roach run across the floor. We are in south Texas so bugs are expected.  After disposing of the bugs I must have run across their buddies because I had another silverfish and another roach.  On my second night is when the roach parade started.  I killed 8 roaches running around different places in the room; it was like a slaughter.  In the morning I notified the front desk clerk of all the roaches and I was informed she was new and couldn't help me, but she would notify the manager.  I'm not sure if the manager was ever made aware of the situation, because the manager never contacted me.  I was not offered to move to a new room, but I’m not sure it would have made any difference.  In addition, as far as I know nothing was ever done to my room to fumigate the bugs.   When I left at 445 for the wedding the room had not been cleaned nor purge of roaches.The final morning (I stayed 3-nights) I woke to find a nice size roach dead next to one of the beds and as we were packing to leave a couple more ran across the room.  I went down to the front desk again to inquire with the manager about the roach issue.  The front desk clerk (different from the previous day) said the manager wasn't at work.  I explained the roach issue and she said she would talk to the manager and have them call me.  I never received a call from the manager.I don’t know if it’s poor management or communication issue, but I tend to believe it’s a poor management issue.  After checking out of the hotel, I contacted Marriott Corporation and via their website.  I received an email back form Marriott Customer Care:Hello I am sorry your stay at the SpringHill Suites Houston Katy Mills was not the Marriott experience you deserve.I shared the details you provided with the executive team at the hotel. They will take action and respond to you soon. I ask that you allow us three to five business days to resolve this issue.As a Platinum Marriott Elite Member, we value your loyalty. Please accept our sincere apologies for this disappointing experience.You can count on Marriott to improve your experience in the future.Safe travels,Rashada SpencerMarriott Customer CareYet I have not heard from the hotel since I returned.  It’s been almost two weeks and not a word from the Springhill Suites Marriott management or owner, which is actually a Marriott Managed hotel by Nayosha LTD which is owned by Anil U Patel.  Just to solidify this is probably poor management, my wife went to purchase a drink from the snack shop, the clerk at the front desk said she couldn't sell anything because she didn't know the price and the manager was away. There are no vending machines, so without a manager you can't buy anything.  Other features of the hotel are very uninspiring and remind me of a Super 8.  The rooms are cheap furnishing with and ugly green paint.  The room we were in had a very odd layout, unlike other Springhill Suites I’ve stayed at.  It does have a microwave and small dorm Fridge. I’ve stayed in Motel 6’s which had nicer decors.  The breakfast in the morning is your standard continental breakfast, which was really nothing special.  The coffee one morning was cold. +I've stayed at several Springhill suites in the past, but never one this poorly run.  Their are several other Marriott properties nearby, so unless they are owned by the same poorly run management group I would stay at them if you have an option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r417287060-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>417287060</t>
+  </si>
+  <si>
+    <t>09/11/2016</t>
+  </si>
+  <si>
+    <t>Nice place, conveniently located</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice room with comfortable bed and ample room. It helped to have a microwave and a refrigerator. The sitting room had a large, comfortable couch with a large TV. I would have liked to have had end tables at each end to place drinks and phone while charging. The staff was pleasant and helpful. The Continental breakfast was as most are with cereal, eggs, sausage, waffles, coffee, juice, etc. My only complaint was that the room had a slightly musty odor. This hotel is located very near the mall and is easy on, easy off I-10. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r416300751-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -418,9 +612,6 @@
   </si>
   <si>
     <t>Clean rooms, great service and comfy bed. Also great if traveling under tight budget. Breakfast are very good too!! Great location as it is right in front of katy mills and conveniently located to access I10</t>
-  </si>
-  <si>
-    <t>September 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r410265836-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
@@ -469,6 +660,42 @@
     <t>Location with great access to Interstate 10. Hotel staff cordial. Quiet property. Clean lobby.  Room was spacious, but humid. Air condition unit very noisy, but we didn't want to go through the hassle of switching rooms after a day of moving. Reported air condition to front desk staff upon departure.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r402588918-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>402588918</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Stayed one night at this hotel . Nice clean hotel...very friendly staff...Our room was a double with a pull out sofa bed..all were nice and comfortable...breakfast was the usual continental breakfast . Only complaint was tha pool is really tiny and the hot tub jets didn't work very well..but other than that it was a pleasant stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r399763871-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>399763871</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Training badly needed, not a positive experience at all</t>
+  </si>
+  <si>
+    <t>I am a lifetime platinum member, so we've stayed at Marriotts forever and this was one of the most negative experiences I have had within that chain.  Starting at the beginning, at check-in our status should be acknowledged and we should be offered either points or an amenity.  No mention of any of this at check-in - I think for the first time ever.  This is a training issue!  By the terms and conditions on the Marriott site, I could have complained to management and received compensation - $50.  Instead I asked another desk agent later - we were given the points and she acknowledged that she always asks.  Then there was the sheets - the most pilled sheets we have seen in a very long time - really worn, not all that comfortable.  The next morning, the shower head was leaking from the side, needing to be replaced.  We asked them to do so at the front desk, even talked to the maintenance guy; it wasn't done.  They had to send up a night guy when we returned that night, really nice but had no idea what he was doing.  After 1-1/2 hours of back and forth, he said the shower was broken.  They did offer us $20 off that night since they couldn't move us to another king room - very nice, but not a huge discount for the time they took.  After the guy left since he...I am a lifetime platinum member, so we've stayed at Marriotts forever and this was one of the most negative experiences I have had within that chain.  Starting at the beginning, at check-in our status should be acknowledged and we should be offered either points or an amenity.  No mention of any of this at check-in - I think for the first time ever.  This is a training issue!  By the terms and conditions on the Marriott site, I could have complained to management and received compensation - $50.  Instead I asked another desk agent later - we were given the points and she acknowledged that she always asks.  Then there was the sheets - the most pilled sheets we have seen in a very long time - really worn, not all that comfortable.  The next morning, the shower head was leaking from the side, needing to be replaced.  We asked them to do so at the front desk, even talked to the maintenance guy; it wasn't done.  They had to send up a night guy when we returned that night, really nice but had no idea what he was doing.  After 1-1/2 hours of back and forth, he said the shower was broken.  They did offer us $20 off that night since they couldn't move us to another king room - very nice, but not a huge discount for the time they took.  After the guy left since he left his wrench I took the shower head apart and fixed it.  Then there was housekeeping.  We left at 11am to get lunch, took off the do not disturb sign, the housekeeper was right outside our door.  We returned briefly at noon, housekeeping was still on the floor, our room was not done yet.  When we returned that evening (to start waiting on the shower head repair), the room was still not done.  When we asked at the front desk, we were told the housekeeper noted that we refused service - total baloney.  At checkout, the desk agent barely acknowledged our departure, probably just as well since if she'd asked how we enjoyed our stay she might have received an earful.  Really poor service overall...some of the staff were friendly, no one was really rude or anything, but just didn't seem to know how to run a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I am a lifetime platinum member, so we've stayed at Marriotts forever and this was one of the most negative experiences I have had within that chain.  Starting at the beginning, at check-in our status should be acknowledged and we should be offered either points or an amenity.  No mention of any of this at check-in - I think for the first time ever.  This is a training issue!  By the terms and conditions on the Marriott site, I could have complained to management and received compensation - $50.  Instead I asked another desk agent later - we were given the points and she acknowledged that she always asks.  Then there was the sheets - the most pilled sheets we have seen in a very long time - really worn, not all that comfortable.  The next morning, the shower head was leaking from the side, needing to be replaced.  We asked them to do so at the front desk, even talked to the maintenance guy; it wasn't done.  They had to send up a night guy when we returned that night, really nice but had no idea what he was doing.  After 1-1/2 hours of back and forth, he said the shower was broken.  They did offer us $20 off that night since they couldn't move us to another king room - very nice, but not a huge discount for the time they took.  After the guy left since he...I am a lifetime platinum member, so we've stayed at Marriotts forever and this was one of the most negative experiences I have had within that chain.  Starting at the beginning, at check-in our status should be acknowledged and we should be offered either points or an amenity.  No mention of any of this at check-in - I think for the first time ever.  This is a training issue!  By the terms and conditions on the Marriott site, I could have complained to management and received compensation - $50.  Instead I asked another desk agent later - we were given the points and she acknowledged that she always asks.  Then there was the sheets - the most pilled sheets we have seen in a very long time - really worn, not all that comfortable.  The next morning, the shower head was leaking from the side, needing to be replaced.  We asked them to do so at the front desk, even talked to the maintenance guy; it wasn't done.  They had to send up a night guy when we returned that night, really nice but had no idea what he was doing.  After 1-1/2 hours of back and forth, he said the shower was broken.  They did offer us $20 off that night since they couldn't move us to another king room - very nice, but not a huge discount for the time they took.  After the guy left since he left his wrench I took the shower head apart and fixed it.  Then there was housekeeping.  We left at 11am to get lunch, took off the do not disturb sign, the housekeeper was right outside our door.  We returned briefly at noon, housekeeping was still on the floor, our room was not done yet.  When we returned that evening (to start waiting on the shower head repair), the room was still not done.  When we asked at the front desk, we were told the housekeeper noted that we refused service - total baloney.  At checkout, the desk agent barely acknowledged our departure, probably just as well since if she'd asked how we enjoyed our stay she might have received an earful.  Really poor service overall...some of the staff were friendly, no one was really rude or anything, but just didn't seem to know how to run a hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r397374635-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -484,9 +711,6 @@
     <t>when I booked the room for Sunday night I was charged $141.00 which I thought was the total charge for the room.  Then I found out that I needed the room for an extra night and was pleasantly surprised that I was only charged $86.00 for the night.  Well when I see the charges I was shocked at all the extra fees that come with it.  I wish they would have told me ahead of time that the $141 was just a deposit and that additional charges would be tacked on in the end.  It was a nice stay and the housekeeping staff was amazing.  But just a little expensive.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>when I booked the room for Sunday night I was charged $141.00 which I thought was the total charge for the room.  Then I found out that I needed the room for an extra night and was pleasantly surprised that I was only charged $86.00 for the night.  Well when I see the charges I was shocked at all the extra fees that come with it.  I wish they would have told me ahead of time that the $141 was just a deposit and that additional charges would be tacked on in the end.  It was a nice stay and the housekeeping staff was amazing.  But just a little expensive.More</t>
   </si>
   <si>
@@ -526,6 +750,42 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r362747888-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>362747888</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>Terrible service</t>
+  </si>
+  <si>
+    <t>Requested my toilet be fixed in the AM got back to my room late in the PM and it wasn't fixed and smell horrible. When I went to the desk they said I'll send someone to fix it. No apology. When they did finally fix it, it still smelled. I asked to change rooms and was told they were full. I asked to speak to a manager and there wasn't one available all weekend. Building full, no manager to insure good service. That's how much they care about their guests. Then icing on the cake I get up for breakfast and there is nothing prepared in the protein section. I understand that sometimes that happens but nobody was doing anything about it. I will be staying somewhere else next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Requested my toilet be fixed in the AM got back to my room late in the PM and it wasn't fixed and smell horrible. When I went to the desk they said I'll send someone to fix it. No apology. When they did finally fix it, it still smelled. I asked to change rooms and was told they were full. I asked to speak to a manager and there wasn't one available all weekend. Building full, no manager to insure good service. That's how much they care about their guests. Then icing on the cake I get up for breakfast and there is nothing prepared in the protein section. I understand that sometimes that happens but nobody was doing anything about it. I will be staying somewhere else next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r357456313-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>357456313</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Completely fine, great location, nothing special</t>
+  </si>
+  <si>
+    <t>This place was totally fine, nothing special.  In a great location.  10 years ago this place would have been great, but this newer properrty forgot to build in an updated style.  It's circa 1990...  There are so many other new and stylish places nearby for similar money with better amenities, this one could be skipped.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r355158817-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -541,9 +801,6 @@
     <t xml:space="preserve">Stayed here for one night on a business trip. Lobby was nice and the staff friendly and helpful. Room was nice enough however the mattresses on both beds were extremely hard. Pillows were good however I could not sleep due to the stiff mattresses . </t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r355009067-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -574,6 +831,57 @@
     <t>We stayed at this hotel while visiting our daughter and grandsons. The front desk staff was very friendly and helpful. The room was cery nice and clean. We liked the idea of a separate sitting area to watch tv. Great selection of tv channels. The only suggestion I would make is, to have an ice machine located in the kitchen area of the hotel. It is rather an inconvienence to have to bother the staff for ice.We will stay here again when visiting the Katy area</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r348156348-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>348156348</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Great location and a great stay!</t>
+  </si>
+  <si>
+    <t>This Springhill Suites, Houston Katy Mills is in an excellent location with a Denny's in walking distance and numerous restaurants nearby.   The décor of this hotel was excellent.  However, I was a little surprised and taken back that "a guest room/suite would have only one sink".   My wife and I had to take turns preparing ourselves.  Otherwise, our stay was great and "you could not beat the price for a guestroom/suite."MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Sanjuana S, Guest Relations Manager at SpringHill Suites Houston Katy Mills, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>This Springhill Suites, Houston Katy Mills is in an excellent location with a Denny's in walking distance and numerous restaurants nearby.   The décor of this hotel was excellent.  However, I was a little surprised and taken back that "a guest room/suite would have only one sink".   My wife and I had to take turns preparing ourselves.  Otherwise, our stay was great and "you could not beat the price for a guestroom/suite."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r346159640-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>346159640</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t>Good location for Katy Park Fields</t>
+  </si>
+  <si>
+    <t>We stayed here mostly because it was close to the fields for soccer. The room was fine with exception of lack of beside plugs which is my pet peeve. I had to pull the table out and unplug the clock so that we could plug a phone cord in. The other issue we had was indeed strange. When we got to our assigned room the door was already propped open with a towel and there was a machine with a cord hooked up in the sitting area. My daughter looked up the machine name and appeared to be some odor eliminating device. I'm Silver Elite status and working on Gold. Was a bit miffed that they didn't seem to even now why this room was this way or why they assigned it to us. We had to go back downstairs at which time they gave us a new room, back to old room, drag luggage down to new room on new floor. Also the AC would only run on low fan not high fan. Not a huge issue since it was winter but definitely would have been in Spring.  Had it not been for this weird mishap and the lack of beside plug I would have rated this a 4.  Its is very close to a Starbucks and also the Katy Mills Mall and theater which are handy for downtime between games.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sanjuana S, Manager at SpringHill Suites Houston Katy Mills, responded to this reviewResponded February 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here mostly because it was close to the fields for soccer. The room was fine with exception of lack of beside plugs which is my pet peeve. I had to pull the table out and unplug the clock so that we could plug a phone cord in. The other issue we had was indeed strange. When we got to our assigned room the door was already propped open with a towel and there was a machine with a cord hooked up in the sitting area. My daughter looked up the machine name and appeared to be some odor eliminating device. I'm Silver Elite status and working on Gold. Was a bit miffed that they didn't seem to even now why this room was this way or why they assigned it to us. We had to go back downstairs at which time they gave us a new room, back to old room, drag luggage down to new room on new floor. Also the AC would only run on low fan not high fan. Not a huge issue since it was winter but definitely would have been in Spring.  Had it not been for this weird mishap and the lack of beside plug I would have rated this a 4.  Its is very close to a Starbucks and also the Katy Mills Mall and theater which are handy for downtime between games.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r340777053-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -628,6 +936,42 @@
     <t>Stayed 2 nights here on business.  Room was fine with no kitchen and that's OK with me.  If you need a kitchenette, make sure you book on with it.  Good location, close to I-10 and next to Katy Mill mall.  Make sure you try the Los Cucos Mexican  restaurant in the mall.  Good food and reasonable price.Room was clean,  Internet acceptable, breakfast not bad with the usual standard stuff.  Did not try their evening reception.I recommend this hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r336082785-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>336082785</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible Management - Stephanie Garza </t>
+  </si>
+  <si>
+    <t>Sadly, we didn't even stay here.  We were looking late at night for a place to stay using our smart phone.  We looked at this location and went through all the prompts to secure a room for the night.  The app froze and we never were able to hit confirm.  So we ventured to another location (same company, just down the street).  We arrive home the next day after staying at a different Marriot.  We check our bank account and this location somehow charged us anyway.  We call Stephanie Garza the manager of the Katy location to discuss what happened.  She then refuses to refund the charge and treats us as if we were stupid and should have called the cancel the room.  Now seriously, what kind of person would book two rooms in the same town, down the street, and not cancel one?  She was very unprofessional and down right rude.  I spent many years in customer service and could never imagine doing business this way.  She honestly deserves to be repremanded.  She has no idea the kind of night we had just had and that we were traveling with small children in bad weather.  Shame on her.  I can only hope karma doesn't find her.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Sadly, we didn't even stay here.  We were looking late at night for a place to stay using our smart phone.  We looked at this location and went through all the prompts to secure a room for the night.  The app froze and we never were able to hit confirm.  So we ventured to another location (same company, just down the street).  We arrive home the next day after staying at a different Marriot.  We check our bank account and this location somehow charged us anyway.  We call Stephanie Garza the manager of the Katy location to discuss what happened.  She then refuses to refund the charge and treats us as if we were stupid and should have called the cancel the room.  Now seriously, what kind of person would book two rooms in the same town, down the street, and not cancel one?  She was very unprofessional and down right rude.  I spent many years in customer service and could never imagine doing business this way.  She honestly deserves to be repremanded.  She has no idea the kind of night we had just had and that we were traveling with small children in bad weather.  Shame on her.  I can only hope karma doesn't find her.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r333049713-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>333049713</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Needs Improvment</t>
+  </si>
+  <si>
+    <t>The Springhill Suites, Katy, TX is in a great location. Easy access to I-10 Highway and walking distance to Katy Mills mall. A nice variety of restaurants both in walking distance and a short drive away. However the this Marriott chain hotel was a little disappointing for me. The room did not smell fresh upon entering but had a less than desirable musty smell. The AC units were old in the room and stop working so I had to have front desk send up a staff to have the breaker reset. The bed was comfortable and good pillows, but overall the room was not that great. the sitting area near bed was a bit old and furnishing needs replacement. The staff was nice and pleasant but it gets a C- rating for my 2 night stay.jljMoreShow less</t>
+  </si>
+  <si>
+    <t>The Springhill Suites, Katy, TX is in a great location. Easy access to I-10 Highway and walking distance to Katy Mills mall. A nice variety of restaurants both in walking distance and a short drive away. However the this Marriott chain hotel was a little disappointing for me. The room did not smell fresh upon entering but had a less than desirable musty smell. The AC units were old in the room and stop working so I had to have front desk send up a staff to have the breaker reset. The bed was comfortable and good pillows, but overall the room was not that great. the sitting area near bed was a bit old and furnishing needs replacement. The staff was nice and pleasant but it gets a C- rating for my 2 night stay.jljMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r327929847-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -682,6 +1026,43 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r326078676-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>326078676</t>
+  </si>
+  <si>
+    <t>Nice Hotel but double Charged us</t>
+  </si>
+  <si>
+    <t>This is a nice place and well run. No complaints at all in that regard.  However we prebooked our room and paid in advance. Checkout was normal and we were on our way.  A few days later while reviewing my cc bill I noticed a charge from the hotel for 444+ dollars.  I called immediately and was told they would credit back my credit card.  One week later when the charge was still on the bill I called again.  This time I was again assured it would be corrected.  I guess we will see in yet another 3-5 days.  I have contacted my cc company and disputed the charge just in case.    Very frustrating!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This is a nice place and well run. No complaints at all in that regard.  However we prebooked our room and paid in advance. Checkout was normal and we were on our way.  A few days later while reviewing my cc bill I noticed a charge from the hotel for 444+ dollars.  I called immediately and was told they would credit back my credit card.  One week later when the charge was still on the bill I called again.  This time I was again assured it would be corrected.  I guess we will see in yet another 3-5 days.  I have contacted my cc company and disputed the charge just in case.    Very frustrating!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r325961537-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>325961537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unprofessional &amp; Charged Twice! </t>
+  </si>
+  <si>
+    <t>The hotel itself was fine. Amenities were about what was expected for the price range and hotel class. Checkout was another story. When I checked out I was asked if I had received a receipt. When I replied that I had not they then said that since I had booked with Expedia that I'd get it from them in email. I then left and we went about our travels. 
+Fast forward a week... I was checking my credit card charges and had noticed a charge for a hotel stay from springhill. I had already paid for my stay through Expedia, knowing that the hotel made a mistake I called them and was transferred to a number that resulted in speaking to the same front desk that could not help me earlier. I requested to speak to a manager, I was transferred to their voicemail in which I left one requesting to be called back. No call back. I called Marriott who is the parent company and filed a complaint and requested reimbursement. Marriott said someone would get back to me in 3 days or less.. never happened. 
+I called back to springhill in Katy after the 3 days and the runaround ensued all over again. I would not allow them to transfer me until the person at the desk had all my info to include the itinerary and proof I had from Expedia that I had already paid. Throughout the...The hotel itself was fine. Amenities were about what was expected for the price range and hotel class. Checkout was another story. When I checked out I was asked if I had received a receipt. When I replied that I had not they then said that since I had booked with Expedia that I'd get it from them in email. I then left and we went about our travels. Fast forward a week... I was checking my credit card charges and had noticed a charge for a hotel stay from springhill. I had already paid for my stay through Expedia, knowing that the hotel made a mistake I called them and was transferred to a number that resulted in speaking to the same front desk that could not help me earlier. I requested to speak to a manager, I was transferred to their voicemail in which I left one requesting to be called back. No call back. I called Marriott who is the parent company and filed a complaint and requested reimbursement. Marriott said someone would get back to me in 3 days or less.. never happened. I called back to springhill in Katy after the 3 days and the runaround ensued all over again. I would not allow them to transfer me until the person at the desk had all my info to include the itinerary and proof I had from Expedia that I had already paid. Throughout the day I played phone tag with them trying to get the matter resolved yet all the time resulted in no progress on their side. So today I called back &amp; I was told that the person working this matter was out until Friday (few days away), I was instantly mad and refused to be passive any longer. Apparently if there is a knucklehead able to charge my card then there surely is a knucklehead able to put the funds back on it I said.. I was transferred at that time to the person that was handling this issue (I thought they were off till Friday) and I went through the motions all over again. I was then told I should have my money back in a couple days by this person yet I'm skeptical and only time will tell.For those looking to stay here I'd consider other options. In the Katy / West Houston area there many others I wish I had stayed at instead of with these people. Not only have they tarnished any reputation that may have had, but they definitely lost my business forever. Marriott should be ashamed that Springhill Suites is affiliated with them as now I will NEVER stay in a hotel umbrellaed under the Marriott name to include Marriott themselves. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself was fine. Amenities were about what was expected for the price range and hotel class. Checkout was another story. When I checked out I was asked if I had received a receipt. When I replied that I had not they then said that since I had booked with Expedia that I'd get it from them in email. I then left and we went about our travels. 
+Fast forward a week... I was checking my credit card charges and had noticed a charge for a hotel stay from springhill. I had already paid for my stay through Expedia, knowing that the hotel made a mistake I called them and was transferred to a number that resulted in speaking to the same front desk that could not help me earlier. I requested to speak to a manager, I was transferred to their voicemail in which I left one requesting to be called back. No call back. I called Marriott who is the parent company and filed a complaint and requested reimbursement. Marriott said someone would get back to me in 3 days or less.. never happened. 
+I called back to springhill in Katy after the 3 days and the runaround ensued all over again. I would not allow them to transfer me until the person at the desk had all my info to include the itinerary and proof I had from Expedia that I had already paid. Throughout the...The hotel itself was fine. Amenities were about what was expected for the price range and hotel class. Checkout was another story. When I checked out I was asked if I had received a receipt. When I replied that I had not they then said that since I had booked with Expedia that I'd get it from them in email. I then left and we went about our travels. Fast forward a week... I was checking my credit card charges and had noticed a charge for a hotel stay from springhill. I had already paid for my stay through Expedia, knowing that the hotel made a mistake I called them and was transferred to a number that resulted in speaking to the same front desk that could not help me earlier. I requested to speak to a manager, I was transferred to their voicemail in which I left one requesting to be called back. No call back. I called Marriott who is the parent company and filed a complaint and requested reimbursement. Marriott said someone would get back to me in 3 days or less.. never happened. I called back to springhill in Katy after the 3 days and the runaround ensued all over again. I would not allow them to transfer me until the person at the desk had all my info to include the itinerary and proof I had from Expedia that I had already paid. Throughout the day I played phone tag with them trying to get the matter resolved yet all the time resulted in no progress on their side. So today I called back &amp; I was told that the person working this matter was out until Friday (few days away), I was instantly mad and refused to be passive any longer. Apparently if there is a knucklehead able to charge my card then there surely is a knucklehead able to put the funds back on it I said.. I was transferred at that time to the person that was handling this issue (I thought they were off till Friday) and I went through the motions all over again. I was then told I should have my money back in a couple days by this person yet I'm skeptical and only time will tell.For those looking to stay here I'd consider other options. In the Katy / West Houston area there many others I wish I had stayed at instead of with these people. Not only have they tarnished any reputation that may have had, but they definitely lost my business forever. Marriott should be ashamed that Springhill Suites is affiliated with them as now I will NEVER stay in a hotel umbrellaed under the Marriott name to include Marriott themselves. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r321478952-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -697,9 +1078,6 @@
     <t>We've stayed at numerous Marriott properties over the years.  Thursday night, 10/22/15, was our first stay at a Springhill Suites.  I had a meeting in Katy, TX, and made a reservation at the Springhill Suites near the Katy Mills Mall.  Everything appeared fine, until the lights went out.  I brought my wife and kids with me so they could shop at the mall while I was in my meeting.  Throughout Thursday night, we found THREE huge cockroaches in the bathroom.  I can't recall finding a roach in a hotel room in recent memory, let alone three of them.  We informed the front office staff when we checked out Friday morning, and all we got for a response was, sorry to hear that, or something along those lines.  I'm sure I'll continue to stay at other Marriott properties, but probably not Springhill Suites, and definitely not the location near the Katy Mills Mall.  MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>We've stayed at numerous Marriott properties over the years.  Thursday night, 10/22/15, was our first stay at a Springhill Suites.  I had a meeting in Katy, TX, and made a reservation at the Springhill Suites near the Katy Mills Mall.  Everything appeared fine, until the lights went out.  I brought my wife and kids with me so they could shop at the mall while I was in my meeting.  Throughout Thursday night, we found THREE huge cockroaches in the bathroom.  I can't recall finding a roach in a hotel room in recent memory, let alone three of them.  We informed the front office staff when we checked out Friday morning, and all we got for a response was, sorry to hear that, or something along those lines.  I'm sure I'll continue to stay at other Marriott properties, but probably not Springhill Suites, and definitely not the location near the Katy Mills Mall.  More</t>
   </si>
   <si>
@@ -742,6 +1120,36 @@
     <t>I didn't have high expectations when booking this hotel, but being a Marriott Silver Elite member, I did expect Marriott quality. When checking in the attendant was very nice and check in was fine. It was when we opened the door to the room when the wheels feel off. The room looked tired and smelled heavily perfumed.  If you've ever rented a party limo you can understand the smell.  We asked for another room as both my wife and son were getting headaches from the pungent smell.  I went to the desk and the young man said he'd move us, but the other room was just as strong.  Going to the desk again, we asked if housekeeping could get us a fan. When he arrived, he explained they "powdered" the carpet to alleviate odors...and was about to start spraying a clean linen spray to mask the other odor.  There is a new SH Suites opening soon, but not soon enough, in Katy and we will give it a go.  I have depended on Marriott properties for over 25 years, and some have been better than others, but this property was more in line with hotels with 6 or Best in their names.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r293297315-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>293297315</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Springhill Suites Scores Again!</t>
+  </si>
+  <si>
+    <t>Marriott is our go to hotel chain of choice since their frequent travel plan works great and most locations are reasonably priced.This location did not disappoint: very clean, spacious, perfectly priced, quick check in and friendly staff.Unfortunately, We were in town for a funeral so we didn't used any of their amenities.  Most evenings they offered a cash bar and free snacks.Location was perfect and made for easy off/on highway!Would definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r284104638-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>284104638</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Great budget Hotel</t>
+  </si>
+  <si>
+    <t>I spent two weeks at this little hotel because I was unable to get a room at the residence inn. However, I was not disappointed,  because of the friendly and professional staff. The shuttle was always on time and the free breakfast and free light dinner is perfect for those on a budget</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r281714162-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -787,6 +1195,50 @@
     <t>Didn't have a reservation, but they were able to accommodate me for the night. Hotels in area seemed pretty booked for a weekday, so I was glad I could get a room. Ok staff, not super friendly. Breakfast was good. Rooms were definitely dated, but clean. They charged for happy hour, which is usually free at Spring Hill, so I'm not sure if that is a Texas thing or just this location.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r268735322-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>268735322</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>Stay was OK but for serious unresolved issue</t>
+  </si>
+  <si>
+    <t>Stayed 5 days on business trip, room was clean, breakfast was fine,,I was ready to give this a 4 or 5 .......  Until this ....
+Upon leaving, I didn't check bill carefully, as it the total seemed about right, but after arriving home I discovered 2 alcoholic beverage charges incurred the night prior to my departure.  I had no idea they even served alcohol, let alone purchased any, so I called, spoke to desk clerk, and she said they have happy hour every evening. I wouldn't have known, because every evening I parked at the back, used the back entrance, walked up to my room, bypassing the lobby, so I never even saw a happy hour.
+Apparently, (as the desk clerk explained) to buy a drink, you give your room number and name, and the attendant checks the computer that they match, and if true, you get your drink. So how did someone manage to buy drinks on my room without knowing my name? There is no paper trail, if you can believe that!
+Clerk said she'd have manager call me back next day, as she has left for the night. Of course no call next day. I left another message the following evening, of course no call back again.
+Well, I spend a lot of money on hotels every year, and eight bucks won't kill me, but I have a real problem with how cavalierly they allow people to...Stayed 5 days on business trip, room was clean, breakfast was fine,,I was ready to give this a 4 or 5 .......  Until this ....Upon leaving, I didn't check bill carefully, as it the total seemed about right, but after arriving home I discovered 2 alcoholic beverage charges incurred the night prior to my departure.  I had no idea they even served alcohol, let alone purchased any, so I called, spoke to desk clerk, and she said they have happy hour every evening. I wouldn't have known, because every evening I parked at the back, used the back entrance, walked up to my room, bypassing the lobby, so I never even saw a happy hour.Apparently, (as the desk clerk explained) to buy a drink, you give your room number and name, and the attendant checks the computer that they match, and if true, you get your drink. So how did someone manage to buy drinks on my room without knowing my name? There is no paper trail, if you can believe that!Clerk said she'd have manager call me back next day, as she has left for the night. Of course no call next day. I left another message the following evening, of course no call back again.Well, I spend a lot of money on hotels every year, and eight bucks won't kill me, but I have a real problem with how cavalierly they allow people to charge to other people's rooms. I have a theory, which I'll keep to myself, but suffice it to say, this is not a place in which I'll ever set foot again. Another twist of irony is that this is my second recent stay at a Marriott after about 10 years of being a Hilton gold and diamond member, but I was ready for a change. Well, maybe not so ready after all. There's a Hilton Garden Inn next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed 5 days on business trip, room was clean, breakfast was fine,,I was ready to give this a 4 or 5 .......  Until this ....
+Upon leaving, I didn't check bill carefully, as it the total seemed about right, but after arriving home I discovered 2 alcoholic beverage charges incurred the night prior to my departure.  I had no idea they even served alcohol, let alone purchased any, so I called, spoke to desk clerk, and she said they have happy hour every evening. I wouldn't have known, because every evening I parked at the back, used the back entrance, walked up to my room, bypassing the lobby, so I never even saw a happy hour.
+Apparently, (as the desk clerk explained) to buy a drink, you give your room number and name, and the attendant checks the computer that they match, and if true, you get your drink. So how did someone manage to buy drinks on my room without knowing my name? There is no paper trail, if you can believe that!
+Clerk said she'd have manager call me back next day, as she has left for the night. Of course no call next day. I left another message the following evening, of course no call back again.
+Well, I spend a lot of money on hotels every year, and eight bucks won't kill me, but I have a real problem with how cavalierly they allow people to...Stayed 5 days on business trip, room was clean, breakfast was fine,,I was ready to give this a 4 or 5 .......  Until this ....Upon leaving, I didn't check bill carefully, as it the total seemed about right, but after arriving home I discovered 2 alcoholic beverage charges incurred the night prior to my departure.  I had no idea they even served alcohol, let alone purchased any, so I called, spoke to desk clerk, and she said they have happy hour every evening. I wouldn't have known, because every evening I parked at the back, used the back entrance, walked up to my room, bypassing the lobby, so I never even saw a happy hour.Apparently, (as the desk clerk explained) to buy a drink, you give your room number and name, and the attendant checks the computer that they match, and if true, you get your drink. So how did someone manage to buy drinks on my room without knowing my name? There is no paper trail, if you can believe that!Clerk said she'd have manager call me back next day, as she has left for the night. Of course no call next day. I left another message the following evening, of course no call back again.Well, I spend a lot of money on hotels every year, and eight bucks won't kill me, but I have a real problem with how cavalierly they allow people to charge to other people's rooms. I have a theory, which I'll keep to myself, but suffice it to say, this is not a place in which I'll ever set foot again. Another twist of irony is that this is my second recent stay at a Marriott after about 10 years of being a Hilton gold and diamond member, but I was ready for a change. Well, maybe not so ready after all. There's a Hilton Garden Inn next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r260545150-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>260545150</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Real nice for the price</t>
+  </si>
+  <si>
+    <t>Great rates,free breakfast &amp; kitchenette in room, nice location if youre going to be in Katy area. Next to freeways, close to major attractions like Stadium &amp; all major freeways.My room had a king size bed and a very nice pull out sofa bed</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r259394374-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -838,6 +1290,42 @@
     <t>When I booked our room the description states it would have 1 bedroom suite with 2 double beds and a pull out sofa in the living room. In actuality this is just a standard hotel room with 2 beds and small living area with a sleeper sofa. The bedroom is not separate, no door between. The 2 areas share a TV which is placed strangely facing a partition wall so that it can only be viewed from either the couch or 1 bed at a time depending on how you turn it. The bed closer to the window can not see the TV at all. The breakfast was good during the week but on the weekends the attendant was rarely seen and didn't keep the hot foods available. I would chose another hotel next time. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r243559253-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>243559253</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>Katy Mills, TX SpringHill Suite</t>
+  </si>
+  <si>
+    <t>This hotel continues to spiral downward.  We have stay here several times before and until this stay, we have not bee disappointed.   This stay however was a different story.1.  Noted the maids opened multiple rooms up and left unattended while off doing something else other than cleaning the rooms.2.  Noted no ice maker existed for the 1st floor guests at all.3. Noted ice maker on second floor out of order.  No one appeared to be attempting  to fix it the two days we were here.4.  Noted if any guest or the hotel wanted ice, they had to go to the only ice maker in the hotel on the third floor.5.  Noted the "breakfast" served when we ate here was probably the worst ever.  The attendant had to be located and told it need serviced which she never really did.  All I saw her do was put out a bunch of half ripe strawberries.  The eggs were like small balls.  Couldn't even eat them with a fork.....had to try to eat with a spoon.  Coffee was far from being fresh. Overall score for breakfast would be a big fat zero️This hotel will probably go on my list of hotels to avoid while in Katy.When the Patels were running it, it was a class act kind of place.Won't be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel continues to spiral downward.  We have stay here several times before and until this stay, we have not bee disappointed.   This stay however was a different story.1.  Noted the maids opened multiple rooms up and left unattended while off doing something else other than cleaning the rooms.2.  Noted no ice maker existed for the 1st floor guests at all.3. Noted ice maker on second floor out of order.  No one appeared to be attempting  to fix it the two days we were here.4.  Noted if any guest or the hotel wanted ice, they had to go to the only ice maker in the hotel on the third floor.5.  Noted the "breakfast" served when we ate here was probably the worst ever.  The attendant had to be located and told it need serviced which she never really did.  All I saw her do was put out a bunch of half ripe strawberries.  The eggs were like small balls.  Couldn't even eat them with a fork.....had to try to eat with a spoon.  Coffee was far from being fresh. Overall score for breakfast would be a big fat zero️This hotel will probably go on my list of hotels to avoid while in Katy.When the Patels were running it, it was a class act kind of place.Won't be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r241327648-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>241327648</t>
+  </si>
+  <si>
+    <t>11/24/2014</t>
+  </si>
+  <si>
+    <t>New property just off the Interstate.</t>
+  </si>
+  <si>
+    <t>Very appealing hotel. Exceptionally clean. Service was excellent. Very convenient to shopping and dining, all within walking distance. Breakfast offerings were diverse and were well prepared.  Outdoor pool very refreshing considering the climate in Houston in July.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r217740858-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -853,9 +1341,6 @@
     <t>I was not impressed with this hotel AT ALL! One night I used an in-room blanket provided by the hotel, then left it sitting on my suitcase in hopes that, as I've come to expect at most hotels, the staff would fold and put it back in the closet. It stayed on my suitcase for three days. I finally left it on the floor to see what would happen. When I returned to my room, it was folded all right, but left on my bed. 2) There was one night when my friend and I, sleeping in separate beds, started complaining about itching. It felt like something was biting. She actually got out of bed to make sure there was nothing in the sheets. 3) We noticed something on the floor that was there for at least two days. I thought they vacuumed everyday? 4) The final straw? I turned a knob to switch the light on and felt something sticky on the knob. It looked like a booger but it appeared someone had chewed gum or something and left it there. I was so skeeved, I couldn't wait to check out... DO NOT STAY THERE!MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>I was not impressed with this hotel AT ALL! One night I used an in-room blanket provided by the hotel, then left it sitting on my suitcase in hopes that, as I've come to expect at most hotels, the staff would fold and put it back in the closet. It stayed on my suitcase for three days. I finally left it on the floor to see what would happen. When I returned to my room, it was folded all right, but left on my bed. 2) There was one night when my friend and I, sleeping in separate beds, started complaining about itching. It felt like something was biting. She actually got out of bed to make sure there was nothing in the sheets. 3) We noticed something on the floor that was there for at least two days. I thought they vacuumed everyday? 4) The final straw? I turned a knob to switch the light on and felt something sticky on the knob. It looked like a booger but it appeared someone had chewed gum or something and left it there. I was so skeeved, I couldn't wait to check out... DO NOT STAY THERE!More</t>
   </si>
   <si>
@@ -896,6 +1381,42 @@
   </si>
   <si>
     <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r199169225-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>199169225</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>Super Stay</t>
+  </si>
+  <si>
+    <t>I spent one night here this past week.  I am a business traveler.  I was very impressed with the level of customer service.  The room was bright and fresh.  They had a lovely reception on Wednesday night:  fajitas, quesadillas, taquitos, rice, beans and chips.dip. Cold drinks too! What a nice surprise!  I will stay here the next time I am in the area, for sure!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r194459611-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>194459611</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>I stayed a few days at the Springhill just before Christmas.   I am not sure what was going on at the Energy Corridor (Houston) but most hotels were full at this last minute booking.     So I ended up at this property on my business trip.It was my first experience at the Springhill and a bit of a shortfall in my expectations. Maybe timing and maybe bad luck.    When travelling on business one does not like surprises.Some of those surprises.How odd but the room next door to me had a major flood so I enjoyed multiple industrial fans blowing next door.  (Yes all day &amp; night).   I found the cleaniness and detail a bit short of what I was accustomed to.   I even had someone elses dirty towel in my closet for my entire 4 days stay &amp; it stayed there.   As a small annoyance, I could not get the hotel to turn the blicking message light off.    (And neither could the Front Desk)Otherwise it is an ok property with minimal services.  Restaurant are nearby by or at the HILTON next door.      Lots of free parking.  Good INTERNET.   Comfortable bed.  Check out what they have on the website to be prepared in advance. Safe travelMikeNMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>I stayed a few days at the Springhill just before Christmas.   I am not sure what was going on at the Energy Corridor (Houston) but most hotels were full at this last minute booking.     So I ended up at this property on my business trip.It was my first experience at the Springhill and a bit of a shortfall in my expectations. Maybe timing and maybe bad luck.    When travelling on business one does not like surprises.Some of those surprises.How odd but the room next door to me had a major flood so I enjoyed multiple industrial fans blowing next door.  (Yes all day &amp; night).   I found the cleaniness and detail a bit short of what I was accustomed to.   I even had someone elses dirty towel in my closet for my entire 4 days stay &amp; it stayed there.   As a small annoyance, I could not get the hotel to turn the blicking message light off.    (And neither could the Front Desk)Otherwise it is an ok property with minimal services.  Restaurant are nearby by or at the HILTON next door.      Lots of free parking.  Good INTERNET.   Comfortable bed.  Check out what they have on the website to be prepared in advance. Safe travelMikeNMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r190342820-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
@@ -940,9 +1461,6 @@
     <t>This is a wonderful hotel. The rooms are huge with a very cool modern theme.  The bed was sooooo comfortable.  It is a foam bed and it was wonderful.  They also have a good breakfast.  It is within walking distance to the Cracker Barrel.  This allows you to park the larger vehicles there</t>
   </si>
   <si>
-    <t>December 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r185741297-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -964,6 +1482,36 @@
     <t>I travel into the Houston area often and honestly am surprised at how hard to is to find a great experience &amp; value for a business traveler. I have stayed several times at this particular hotel and have always been happy with what I can get for around $150 a night. Don't expect a 5-Star experience but it is a clean, safe and convenient place to stay. In my last visit may carpet was badly stained but that has been my only complaint. The rooms are spacious and the beds are as comfortable as hotel beds can be. The HVAC works well and the have Dish network and a decent TV. The workout facility is on par with hotel in this range... a few treadmill/ellipticals, nothing fancy. A solid 3 Stars.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r181526269-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>181526269</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Good location for Shopping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are shopping the Katy Mills Outlet Mall, this is a great location and the hotel is clean and the staff very friendly. It is a little loud in the evening from the outside I-10 traffic. The room was clean, lots of TV channels, but the wifi was a little slow. The rooms offer a mini fridge and microwave. There is nothing that really separates the bedroom and sitting room area. I would say the rooms are probably comfortable for 1-2 people only. The breakfast bar had a variety of cold foods, toast, bagels, etc. I would stay there again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r180707642-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>180707642</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place is basically clean but I am very sensitive to smell and it has a very strong almost bleach smell in the rooms. Like the space you get in the suite-type rooms. They have a "bar" that opens at 5:00. At 5:30 I went down and it wasnt set up yet. Breakfast is usual powdered eggs and breads. I just stayed for 1 night but not sure I'll be back. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r175916886-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1024,6 +1572,42 @@
     <t>We've stayed here before and were glad to find a room available.  Very friendly, helpful, and efficient staff at check-in. Luggage carts available at entrance. Room was very clean and comfortable. Nice furniture and comfortable bed.  Room was very quiet in spite of being close to Interstate 10. The complimentary breakfast was very nice, good selection, hot food was hot and cold was cold.  Hotel shares a parking lot with a Denny's restaurant. It is very convient to Katy Mills, a very large mall with a Bass Pro Shops Outdoor World and a Rainforest Cafe.  We have had mixed experiences with SpringHill suites in the past, but this one is definitely a good one.  The hotel can fill up early and fast when there is a sporting event scheduled at the nearby Merrell center.  Also fills up nears shopping seasons.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r154501666-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>154501666</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Aging rapidly</t>
+  </si>
+  <si>
+    <t>We've stayed at the SpringHill Suites in Katy, I'd say, about ten times. However, I've noticed that the hotel has begun to show its age.  Sad to say, it's lacking a true modernization and with the arrival of several other hotels into the area, it will need to compete or die.  (Hampton Inns, Hilton Garden, Executive Suites...)  For example, shower curtains with magnets (huh?), lukewarm water unless you want to wait about fifteen minutes for not that much hotter, no real bathroom amenities like shower caps and a few toiletries.  The beds need a serious upgrade to "hotel level" mattresses and linens that actually fit (fitted corners do not reach existing mattresses) and bathroom towels becoming threadbare, by the way.  The breakfast is so-so, but there is a Denny's across the parking lot and other food venues are close by.  I can't attest to the pool.  "Business Office" pretty much occupied by kids playing video games and/or checking social network pages - forever.  However, we've never, ever encountered a staff member who wasn't helpful, pleasant, and professional.  Then again, we did not experience any major problems with plumbing or unclean rooms.  Given the decline of this property, sadly, we won't be staying there again (the rates do not justify the environment....).MoreShow less</t>
+  </si>
+  <si>
+    <t>We've stayed at the SpringHill Suites in Katy, I'd say, about ten times. However, I've noticed that the hotel has begun to show its age.  Sad to say, it's lacking a true modernization and with the arrival of several other hotels into the area, it will need to compete or die.  (Hampton Inns, Hilton Garden, Executive Suites...)  For example, shower curtains with magnets (huh?), lukewarm water unless you want to wait about fifteen minutes for not that much hotter, no real bathroom amenities like shower caps and a few toiletries.  The beds need a serious upgrade to "hotel level" mattresses and linens that actually fit (fitted corners do not reach existing mattresses) and bathroom towels becoming threadbare, by the way.  The breakfast is so-so, but there is a Denny's across the parking lot and other food venues are close by.  I can't attest to the pool.  "Business Office" pretty much occupied by kids playing video games and/or checking social network pages - forever.  However, we've never, ever encountered a staff member who wasn't helpful, pleasant, and professional.  Then again, we did not experience any major problems with plumbing or unclean rooms.  Given the decline of this property, sadly, we won't be staying there again (the rates do not justify the environment....).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r151896617-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>151896617</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>Clean/Comfy</t>
+  </si>
+  <si>
+    <t>My wife and I and two other couples stayed here for a night while on a shopping excursion to the Katy Mills Mall.  Room was clean and comfortable and the hotel is super conveniently located next to the Mall, Basspro, and Dining.  Continental breakfast was great the next morning.  Overall good place to stay.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r150358758-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1078,6 +1662,42 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r144142074-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>144142074</t>
+  </si>
+  <si>
+    <t>10/31/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a week .Altogether it was a pleasant experience,the rooms were clean,though not very spacious.The thing i loved the most was the lighting in the rooms.They served free beer.And this hotel is at walkable distance from Katty Mills and there are a few other restraunts including Mc,Donalds near by.(I was travelling first time to US then ,and i dint had a vechile,so having a food court at walk able distance was of prime significance to me).The pool is quiet small,they also have a decent gym .</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r142374478-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>142374478</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>No Hot Water!?!</t>
+  </si>
+  <si>
+    <t>I was really surprised on this one.  My shower had ice-cold water and when I informed the front desk, they told me they were sorry for the inconvenience and that the boiler had been out for several days.  Maybe I've just been lucky, but that's the first time I've been unable to take a hot shower at a hotel in the United States.  The hotel didn't offer any kind of concession.  To me, a hot shower is not an amenity, it's a clear expectation, but obviously to the Springhill Suites, it's a "nice to have".</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r142249645-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1132,6 +1752,48 @@
     <t>Spent one night here on 05JUL2012. Bed was comfortable, room was quite and clean. Was told by front desk that breakfast was until 10 am. Arrived at 0920 to find the breakfast lady had already broken down the area and was told in broken english that it was 0930 and breakfast was over. Will stay elsewhere if I am in the area agian. Hotel is new but staff ruined the stay.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r131842763-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>131842763</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Unpleasant Stay</t>
+  </si>
+  <si>
+    <t>The first room we were given was not clean. There were towels on the floor, trash in the containers, and used soap in the bathroom. At our request, we were given another room which was clean. During the night of our stay, in the second room, the toilet was not operating properly. We called down to the front desk and requested assistance. The front desk staff informed us that maintenance were unavailable and told us that all he could do was provide us with a plunger. We weren’t even offered a different room; I had to make the request.  The manager was unavailable to speak with upon checking out. I’ve called twice since the stay and have not received a return phone. Terrible customer service !MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>The first room we were given was not clean. There were towels on the floor, trash in the containers, and used soap in the bathroom. At our request, we were given another room which was clean. During the night of our stay, in the second room, the toilet was not operating properly. We called down to the front desk and requested assistance. The front desk staff informed us that maintenance were unavailable and told us that all he could do was provide us with a plunger. We weren’t even offered a different room; I had to make the request.  The manager was unavailable to speak with upon checking out. I’ve called twice since the stay and have not received a return phone. Terrible customer service !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r129887078-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>129887078</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>BUG!!!</t>
+  </si>
+  <si>
+    <t>I arrived there around 10 PM on the 12th of May.  It appeared to be nice enough, clean enough as well.  After watching television for a bit I got out of the bed around 12:50 in the AM to find a bug crawling around in my bed.  I called and asked for a new room which they gave me but it took some time getting dressed and packing everything up.  When I went downstairs to get the new room key they simply said, "Sorry about that."  I asked if they sprayed for bugs regularly but this person didn't know as he was new.  It was difficult to even relax in the new bed even though I completely stripped the bedding apart to check for more bugs.  Not the best sleep I have ever had.  When I went to check out the next morning a different person apologized and asked me if I would like a bottle of water.  Hmmmmmm.  A bottle of water for that experience...really.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>I arrived there around 10 PM on the 12th of May.  It appeared to be nice enough, clean enough as well.  After watching television for a bit I got out of the bed around 12:50 in the AM to find a bug crawling around in my bed.  I called and asked for a new room which they gave me but it took some time getting dressed and packing everything up.  When I went downstairs to get the new room key they simply said, "Sorry about that."  I asked if they sprayed for bugs regularly but this person didn't know as he was new.  It was difficult to even relax in the new bed even though I completely stripped the bedding apart to check for more bugs.  Not the best sleep I have ever had.  When I went to check out the next morning a different person apologized and asked me if I would like a bottle of water.  Hmmmmmm.  A bottle of water for that experience...really.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r127442749-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1851,42 @@
     <t>Just visited the Springhill Suites in Katy, Texas again. I've always enjoyed my stays here, and I know I'll be  back. This time around it looks like they've remodeled the whole place. The dining area, and even the rooms (at least the room I was in) have new furniture and carpet. One thing I really like about this hotel is that it is an easy off/ on from the I-10 expressway. It's also close to many restaurants and shopping. Only complaint I have is that the exercise bike in the workout room seems worn out. But I was happy to see that they still had their hot tub and pool open in February.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r124569203-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>124569203</t>
+  </si>
+  <si>
+    <t>02/14/2012</t>
+  </si>
+  <si>
+    <t>So far below Marriott Standards, it is pitiful</t>
+  </si>
+  <si>
+    <t>Be ready to share your room with the freeway in front of the hotel or a major highway behind the hotel.  There was a light wind (10 to 15 knots) blowing around my corner room.  sounded like I was in a hurricane.  No chance of sleeping in this room!  Front desk cared less.  They apologized with a canned statement that sounded like they had lots of practice apologizing.  Won't be staying here again.  If I had time, I would work on a refund.  I asked the GM to call me.  He/she did not.  Pitiful</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r124232277-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>124232277</t>
+  </si>
+  <si>
+    <t>02/06/2012</t>
+  </si>
+  <si>
+    <t>Comfortable place and close to everything, but lukewarm water....</t>
+  </si>
+  <si>
+    <t>This Springhill Suites, Houston, Katy Mills hotel is a nice, clean establishment and provided me with a very quiet, relaxing and comfortable stay the week that I was there.  Like others here have pointed out, it is close to restaurants and the Katy Mills Mall, which I enjoyed walking through. The staff at the hotel were pleasant and helpful.  The complimentary breakfast was good with plenty of options to choose.  I couldn't rate a very good or excellent here since I had 'luke warm' water to shower with the whole week and then turned to no hot water (cold) my last day of my stay.  Mechanical failure might have been due to staff not monitoring boilers, etc.? Hotel staff just said, "sorry", as I checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>This Springhill Suites, Houston, Katy Mills hotel is a nice, clean establishment and provided me with a very quiet, relaxing and comfortable stay the week that I was there.  Like others here have pointed out, it is close to restaurants and the Katy Mills Mall, which I enjoyed walking through. The staff at the hotel were pleasant and helpful.  The complimentary breakfast was good with plenty of options to choose.  I couldn't rate a very good or excellent here since I had 'luke warm' water to shower with the whole week and then turned to no hot water (cold) my last day of my stay.  Mechanical failure might have been due to staff not monitoring boilers, etc.? Hotel staff just said, "sorry", as I checked out.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r118540402-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1246,6 +1944,42 @@
     <t>This place is just what you expect to find at Spring Hill Suites, nice clean comfortable rooms and friendly staff. Great location if your business takes you to the west side of Houston. Lots of nearby restaurants and entertainment nearby. Nice Bass Pro Shop right next door for the outdoor types and a huge outlet mall as well. This Spring Hill is a little older than most I have stayed out based on room design, but it is very well maintained and looks like brand new. My one complaint, and it is the same one I have at all of these, is the cheap free breakfast. It is breakfast done half hearted. I really don’t like eggs that come in a perfect circle shape or pre-packaged foods. I am a huge Marriott fan and stay in them all the time. I wish they would take Hiltons Garden Inns example and put in a real restaurant that serves a real fresh breakfast. On that note there is a HGI next door where you can buy breakfast, a Denny’s in the parking lot, and a Starbucks right behind the HGI. While there is plenty of breakfast places close by it is not optimal when it is 27 outside with rain.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r95806310-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>95806310</t>
+  </si>
+  <si>
+    <t>02/07/2011</t>
+  </si>
+  <si>
+    <t>It would definitely recommend it</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel in February. Staffs are really friendly and rooms are very clean. Services are great. The location is really great with lots of shopping centers and restaurants around.It has a small pool and Gym but it is clean and nice. I would definitely recommend it if you want to stay in Katy or around. It's Close to Houston and Sugarland city centers.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r34554423-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>34554423</t>
+  </si>
+  <si>
+    <t>07/12/2009</t>
+  </si>
+  <si>
+    <t>Clean, modern, convienent.</t>
+  </si>
+  <si>
+    <t>Well run, excellent staff, very friendly and accommodating. The rooms are comfortable, modern and a good size with a little sitting area, desk and bar area.  Lots of room to for all the bags of shopping from the nearby (5 min walk) Katy Mills Outlet Mall. Breakfast was good enough, had hot oatmeal and you could make waffles which was fun for kids. Pool is small but clean and decent. You had to use your room key to enter the hotel at night. Good location, nearest hotel to Katy Mills mall, near I10, there's a Denny's right behind the hotel and KFC, Starbucks, Walmart are all 3 mins drive away. Very happy with it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>Well run, excellent staff, very friendly and accommodating. The rooms are comfortable, modern and a good size with a little sitting area, desk and bar area.  Lots of room to for all the bags of shopping from the nearby (5 min walk) Katy Mills Outlet Mall. Breakfast was good enough, had hot oatmeal and you could make waffles which was fun for kids. Pool is small but clean and decent. You had to use your room key to enter the hotel at night. Good location, nearest hotel to Katy Mills mall, near I10, there's a Denny's right behind the hotel and KFC, Starbucks, Walmart are all 3 mins drive away. Very happy with it.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r20275268-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -1295,6 +2029,42 @@
   </si>
   <si>
     <t>We were visiting family in town and had a great stay.  The room was clean, the bedsheets and bedspreads were well taken care of.  They had a great breakfast, free parking and good maid service.  The staff was helpful and friendly. They had available onsite paid laundry with good, clean machines.  If we ever returned we'd be staying there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r12887145-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>12887145</t>
+  </si>
+  <si>
+    <t>01/22/2008</t>
+  </si>
+  <si>
+    <t>Nice, new hotel</t>
+  </si>
+  <si>
+    <t>I really liked this hotel. It's only 3 years old and for a great price we got free breakfast each morning, free parking, and free lollipops &amp; cookies for kids. Sure beats an expensive OLD hotel that will charge $$$ for everything. This hotel won't do that. We had a great stay. No complaints. It was clean, excellent price and right by the KATY outlet shopping center.</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r7417933-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>7417933</t>
+  </si>
+  <si>
+    <t>04/22/2007</t>
+  </si>
+  <si>
+    <t>Great stay - would definitely recommend</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel and were very pleased. It was very clean and tidy and the rooms were excellent for us as a family of four. The breakfast was very good, and varied, the danger of which was overeating! We were very pleased and would definitely go back there again.</t>
+  </si>
+  <si>
+    <t>March 2007</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d551004-r4823394-SpringHill_Suites_Houston_Katy_Mills-Katy_Texas.html</t>
@@ -1847,7 +2617,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1856,18 +2626,24 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1883,7 +2659,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1892,22 +2668,22 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>60</v>
@@ -1917,14 +2693,16 @@
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1967,27 +2745,21 @@
         <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -2024,13 +2796,13 @@
         <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2041,14 +2813,10 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -2064,48 +2832,54 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>77</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>78</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>66</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2121,34 +2895,34 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>82</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>83</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>84</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2162,7 +2936,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -2178,48 +2952,54 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
       <c r="O8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -2235,34 +3015,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="J9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K9" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2273,8 +3053,12 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
       <c r="Y9" t="s">
         <v>100</v>
       </c>
@@ -2313,31 +3097,27 @@
         <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -2374,10 +3154,10 @@
         <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="O11" t="s">
         <v>60</v>
@@ -2394,7 +3174,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -2431,27 +3211,31 @@
         <v>117</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
         <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -2488,25 +3272,25 @@
         <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
         <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2514,7 +3298,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -2551,13 +3335,13 @@
         <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
         <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2571,7 +3355,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
@@ -2587,7 +3371,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2596,47 +3380,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X15" t="s">
-        <v>140</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -2652,48 +3428,52 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
         <v>142</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>143</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
         <v>144</v>
-      </c>
-      <c r="K16" t="s">
-        <v>145</v>
-      </c>
-      <c r="L16" t="s">
-        <v>146</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>138</v>
-      </c>
-      <c r="O16" t="s">
-        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
@@ -2709,54 +3489,48 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
         <v>147</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>148</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>149</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>150</v>
       </c>
-      <c r="L17" t="s">
-        <v>151</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>152</v>
-      </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
@@ -2772,44 +3546,44 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
         <v>154</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>155</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
         <v>156</v>
       </c>
-      <c r="K18" t="s">
-        <v>157</v>
-      </c>
-      <c r="L18" t="s">
-        <v>158</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s">
-        <v>159</v>
-      </c>
       <c r="O18" t="s">
-        <v>94</v>
-      </c>
-      <c r="P18" t="n">
+        <v>60</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2817,7 +3591,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
@@ -2833,54 +3607,48 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
         <v>160</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>161</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>162</v>
       </c>
-      <c r="K19" t="s">
-        <v>163</v>
-      </c>
-      <c r="L19" t="s">
-        <v>164</v>
-      </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
         <v>60</v>
       </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
@@ -2896,34 +3664,34 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
         <v>166</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>167</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>168</v>
       </c>
-      <c r="K20" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" t="s">
-        <v>170</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>171</v>
-      </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2937,7 +3705,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
@@ -2953,41 +3721,47 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
         <v>172</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>173</v>
       </c>
-      <c r="J21" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
         <v>174</v>
-      </c>
-      <c r="L21" t="s">
-        <v>175</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
-        <v>176</v>
       </c>
       <c r="O21" t="s">
         <v>60</v>
       </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
@@ -3010,48 +3784,54 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>177</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>178</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>179</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>180</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>181</v>
       </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>171</v>
-      </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -3067,7 +3847,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3076,45 +3856,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
@@ -3151,33 +3925,27 @@
         <v>193</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
@@ -3193,54 +3961,56 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>195</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>196</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>197</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>198</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
         <v>199</v>
       </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>176</v>
-      </c>
       <c r="O25" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>200</v>
+      </c>
+      <c r="X25" t="s">
+        <v>201</v>
+      </c>
       <c r="Y25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
@@ -3256,7 +4026,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3265,25 +4035,25 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L26" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O26" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3297,7 +4067,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
@@ -3313,7 +4083,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3322,43 +4092,39 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
@@ -3374,7 +4140,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3383,37 +4149,35 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3421,7 +4185,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
@@ -3437,48 +4201,54 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>218</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>219</v>
-      </c>
-      <c r="J29" t="s">
-        <v>220</v>
-      </c>
-      <c r="K29" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" t="s">
-        <v>222</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="O29" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" t="n">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
-        <v>223</v>
-      </c>
-      <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
@@ -3494,7 +4264,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3503,32 +4273,32 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>4</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3539,7 +4309,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
@@ -3555,7 +4325,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3564,39 +4334,45 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
@@ -3633,10 +4409,14 @@
         <v>242</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
@@ -3649,7 +4429,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
@@ -3665,7 +4445,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3674,35 +4454,37 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3710,7 +4492,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34">
@@ -3726,7 +4508,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3735,43 +4517,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K34" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s">
         <v>60</v>
       </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>3</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
@@ -3787,7 +4565,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3796,45 +4574,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>259</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36">
@@ -3850,7 +4622,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3859,45 +4631,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="J36" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K36" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37">
@@ -3913,7 +4679,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3922,45 +4688,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>270</v>
+      </c>
+      <c r="O37" t="s">
+        <v>126</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>271</v>
+      </c>
+      <c r="X37" t="s">
+        <v>272</v>
+      </c>
       <c r="Y37" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
@@ -3976,48 +4746,58 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>274</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>275</v>
+      </c>
+      <c r="J38" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" t="s">
+        <v>277</v>
+      </c>
+      <c r="L38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
         <v>270</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>271</v>
-      </c>
-      <c r="J38" t="s">
-        <v>272</v>
-      </c>
-      <c r="K38" t="s">
-        <v>273</v>
-      </c>
-      <c r="L38" t="s">
-        <v>274</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="s">
-        <v>275</v>
-      </c>
       <c r="O38" t="s">
-        <v>119</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>279</v>
+      </c>
+      <c r="X38" t="s">
+        <v>280</v>
+      </c>
       <c r="Y38" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
@@ -4033,7 +4813,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4042,41 +4822,37 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J39" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K39" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L39" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4084,7 +4860,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40">
@@ -4100,7 +4876,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4109,41 +4885,37 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="J40" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K40" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4151,7 +4923,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41">
@@ -4167,7 +4939,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4176,41 +4948,37 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="J41" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K41" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L41" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="O41" t="s">
         <v>60</v>
       </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4218,7 +4986,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42">
@@ -4234,7 +5002,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4243,25 +5011,25 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J42" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K42" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L42" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4275,7 +5043,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43">
@@ -4291,7 +5059,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4300,35 +5068,31 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J43" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L43" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
         <v>3</v>
       </c>
@@ -4342,7 +5106,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44">
@@ -4358,7 +5122,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4367,49 +5131,39 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K44" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L44" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O44" t="s">
-        <v>106</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45">
@@ -4425,7 +5179,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4434,38 +5188,32 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J45" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K45" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L45" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O45" t="s">
-        <v>119</v>
-      </c>
-      <c r="P45" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
         <v>5</v>
       </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4492,7 +5240,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4501,41 +5249,37 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O46" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4543,7 +5287,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47">
@@ -4571,38 +5315,32 @@
         <v>331</v>
       </c>
       <c r="J47" t="s">
+        <v>326</v>
+      </c>
+      <c r="K47" t="s">
         <v>332</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>333</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
         <v>334</v>
       </c>
-      <c r="M47" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47" t="s">
-        <v>335</v>
-      </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4610,7 +5348,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48">
@@ -4626,58 +5364,48 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
         <v>337</v>
       </c>
-      <c r="G48" t="s">
-        <v>46</v>
-      </c>
-      <c r="H48" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
+        <v>326</v>
+      </c>
+      <c r="K48" t="s">
         <v>338</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>339</v>
       </c>
-      <c r="K48" t="s">
-        <v>340</v>
-      </c>
-      <c r="L48" t="s">
-        <v>341</v>
-      </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O48" t="s">
-        <v>119</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>4</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49">
@@ -4693,51 +5421,41 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>341</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
         <v>342</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>343</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>344</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>345</v>
       </c>
-      <c r="L49" t="s">
-        <v>346</v>
-      </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="O49" t="s">
-        <v>94</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>4</v>
-      </c>
-      <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>2</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
@@ -4760,46 +5478,44 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>347</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
         <v>348</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>349</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>350</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>351</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
         <v>352</v>
       </c>
-      <c r="M50" t="n">
-        <v>2</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
-      <c r="P50" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
+      <c r="O50" t="s">
+        <v>67</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4807,7 +5523,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51">
@@ -4823,58 +5539,48 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>353</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
         <v>354</v>
       </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>355</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>356</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>357</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
         <v>358</v>
       </c>
-      <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s">
-        <v>359</v>
-      </c>
       <c r="O51" t="s">
-        <v>60</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52">
@@ -4890,58 +5596,44 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
         <v>361</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>362</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>363</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>364</v>
       </c>
-      <c r="L52" t="s">
-        <v>365</v>
-      </c>
       <c r="M52" t="n">
-        <v>3</v>
-      </c>
-      <c r="N52" t="s">
-        <v>359</v>
-      </c>
-      <c r="O52" t="s">
-        <v>94</v>
-      </c>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>2</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53">
@@ -4957,58 +5649,48 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
         <v>366</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>367</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>368</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>369</v>
       </c>
-      <c r="L53" t="s">
-        <v>370</v>
-      </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="O53" t="s">
         <v>60</v>
       </c>
-      <c r="P53" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2</v>
-      </c>
-      <c r="S53" t="n">
-        <v>3</v>
-      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>3</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54">
@@ -5024,54 +5706,44 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
+        <v>370</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>371</v>
+      </c>
+      <c r="J54" t="s">
+        <v>372</v>
+      </c>
+      <c r="K54" t="s">
         <v>373</v>
       </c>
-      <c r="G54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="L54" t="s">
         <v>374</v>
       </c>
-      <c r="J54" t="s">
-        <v>375</v>
-      </c>
-      <c r="K54" t="s">
-        <v>376</v>
-      </c>
-      <c r="L54" t="s">
-        <v>377</v>
-      </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s"/>
       <c r="O54" t="s"/>
-      <c r="P54" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
-      <c r="S54" t="n">
-        <v>3</v>
-      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>3</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55">
@@ -5087,50 +5759,44 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
+        <v>375</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>376</v>
+      </c>
+      <c r="J55" t="s">
+        <v>377</v>
+      </c>
+      <c r="K55" t="s">
         <v>378</v>
       </c>
-      <c r="G55" t="s">
-        <v>46</v>
-      </c>
-      <c r="H55" t="s">
-        <v>47</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="L55" t="s">
         <v>379</v>
       </c>
-      <c r="J55" t="s">
-        <v>380</v>
-      </c>
-      <c r="K55" t="s">
-        <v>381</v>
-      </c>
-      <c r="L55" t="s">
-        <v>382</v>
-      </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
       </c>
-      <c r="Q55" t="n">
-        <v>4</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5138,7 +5804,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56">
@@ -5154,7 +5820,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5163,41 +5829,35 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J56" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="K56" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L56" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="O56" t="s">
         <v>60</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
         <v>3</v>
       </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5205,7 +5865,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57">
@@ -5221,7 +5881,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5230,49 +5890,39 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="J57" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K57" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L57" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>397</v>
+        <v>329</v>
       </c>
       <c r="O57" t="s">
         <v>60</v>
       </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>5</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58">
@@ -5288,7 +5938,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5297,37 +5947,33 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="J58" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K58" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
       <c r="R58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
@@ -5339,7 +5985,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59">
@@ -5355,7 +6001,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5364,41 +6010,37 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="J59" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K59" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L59" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
-      </c>
-      <c r="N59" t="s">
-        <v>409</v>
-      </c>
-      <c r="O59" t="s">
-        <v>94</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5406,7 +6048,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60">
@@ -5422,7 +6064,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5431,41 +6073,37 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="J60" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K60" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="L60" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="O60" t="s">
-        <v>60</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P60" t="s"/>
       <c r="Q60" t="n">
         <v>5</v>
       </c>
       <c r="R60" t="n">
-        <v>4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5473,7 +6111,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="61">
@@ -5489,7 +6127,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5498,37 +6136,37 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="J61" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K61" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L61" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N61" t="s"/>
       <c r="O61" t="s"/>
       <c r="P61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
         <v>3</v>
-      </c>
-      <c r="S61" t="n">
-        <v>4</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5536,7 +6174,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62">
@@ -5552,7 +6190,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5561,47 +6199,2777 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="J62" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K62" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="L62" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
-      </c>
-      <c r="N62" t="s">
-        <v>426</v>
-      </c>
-      <c r="O62" t="s">
-        <v>60</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
       <c r="R62" t="s"/>
-      <c r="S62" t="n">
-        <v>4</v>
-      </c>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>420</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>421</v>
+      </c>
+      <c r="J63" t="s">
+        <v>422</v>
+      </c>
+      <c r="K63" t="s">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s">
+        <v>424</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
         <v>425</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>426</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>427</v>
+      </c>
+      <c r="J64" t="s">
+        <v>428</v>
+      </c>
+      <c r="K64" t="s">
+        <v>429</v>
+      </c>
+      <c r="L64" t="s">
+        <v>430</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>425</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>432</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>433</v>
+      </c>
+      <c r="J65" t="s">
+        <v>434</v>
+      </c>
+      <c r="K65" t="s">
+        <v>435</v>
+      </c>
+      <c r="L65" t="s">
+        <v>436</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>437</v>
+      </c>
+      <c r="O65" t="s">
+        <v>67</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>439</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>440</v>
+      </c>
+      <c r="J66" t="s">
+        <v>441</v>
+      </c>
+      <c r="K66" t="s">
+        <v>442</v>
+      </c>
+      <c r="L66" t="s">
+        <v>443</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>444</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>446</v>
+      </c>
+      <c r="J67" t="s">
+        <v>447</v>
+      </c>
+      <c r="K67" t="s">
+        <v>448</v>
+      </c>
+      <c r="L67" t="s">
+        <v>449</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>444</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>450</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>451</v>
+      </c>
+      <c r="J68" t="s">
+        <v>452</v>
+      </c>
+      <c r="K68" t="s">
+        <v>453</v>
+      </c>
+      <c r="L68" t="s">
+        <v>454</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>455</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>457</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>458</v>
+      </c>
+      <c r="J69" t="s">
+        <v>459</v>
+      </c>
+      <c r="K69" t="s">
+        <v>460</v>
+      </c>
+      <c r="L69" t="s">
+        <v>461</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>462</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>464</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>465</v>
+      </c>
+      <c r="J70" t="s">
+        <v>466</v>
+      </c>
+      <c r="K70" t="s">
+        <v>467</v>
+      </c>
+      <c r="L70" t="s">
+        <v>468</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>455</v>
+      </c>
+      <c r="O70" t="s">
+        <v>126</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>469</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>470</v>
+      </c>
+      <c r="J71" t="s">
+        <v>471</v>
+      </c>
+      <c r="K71" t="s">
+        <v>472</v>
+      </c>
+      <c r="L71" t="s">
+        <v>473</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" t="s">
+        <v>60</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>476</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>477</v>
+      </c>
+      <c r="J72" t="s">
+        <v>478</v>
+      </c>
+      <c r="K72" t="s">
+        <v>479</v>
+      </c>
+      <c r="L72" t="s">
+        <v>480</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>462</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>481</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>482</v>
+      </c>
+      <c r="J73" t="s">
+        <v>483</v>
+      </c>
+      <c r="K73" t="s">
+        <v>484</v>
+      </c>
+      <c r="L73" t="s">
+        <v>485</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>486</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>487</v>
+      </c>
+      <c r="J74" t="s">
+        <v>488</v>
+      </c>
+      <c r="K74" t="s">
+        <v>489</v>
+      </c>
+      <c r="L74" t="s">
+        <v>490</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>491</v>
+      </c>
+      <c r="O74" t="s">
+        <v>144</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>492</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>493</v>
+      </c>
+      <c r="J75" t="s">
+        <v>494</v>
+      </c>
+      <c r="K75" t="s">
+        <v>495</v>
+      </c>
+      <c r="L75" t="s">
+        <v>496</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>497</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>500</v>
+      </c>
+      <c r="J76" t="s">
+        <v>501</v>
+      </c>
+      <c r="K76" t="s">
+        <v>502</v>
+      </c>
+      <c r="L76" t="s">
+        <v>503</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>504</v>
+      </c>
+      <c r="O76" t="s">
+        <v>126</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>506</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>507</v>
+      </c>
+      <c r="J77" t="s">
+        <v>508</v>
+      </c>
+      <c r="K77" t="s">
+        <v>509</v>
+      </c>
+      <c r="L77" t="s">
+        <v>510</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>504</v>
+      </c>
+      <c r="O77" t="s">
+        <v>67</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>512</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>513</v>
+      </c>
+      <c r="J78" t="s">
+        <v>514</v>
+      </c>
+      <c r="K78" t="s">
+        <v>515</v>
+      </c>
+      <c r="L78" t="s">
+        <v>516</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>517</v>
+      </c>
+      <c r="O78" t="s">
+        <v>126</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>518</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>519</v>
+      </c>
+      <c r="J79" t="s">
+        <v>520</v>
+      </c>
+      <c r="K79" t="s">
+        <v>521</v>
+      </c>
+      <c r="L79" t="s">
+        <v>522</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>523</v>
+      </c>
+      <c r="O79" t="s">
+        <v>67</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>525</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>526</v>
+      </c>
+      <c r="J80" t="s">
+        <v>527</v>
+      </c>
+      <c r="K80" t="s">
+        <v>528</v>
+      </c>
+      <c r="L80" t="s">
+        <v>529</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>523</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>530</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>531</v>
+      </c>
+      <c r="J81" t="s">
+        <v>532</v>
+      </c>
+      <c r="K81" t="s">
+        <v>533</v>
+      </c>
+      <c r="L81" t="s">
+        <v>534</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>535</v>
+      </c>
+      <c r="O81" t="s">
+        <v>126</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>536</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>537</v>
+      </c>
+      <c r="J82" t="s">
+        <v>538</v>
+      </c>
+      <c r="K82" t="s">
+        <v>539</v>
+      </c>
+      <c r="L82" t="s">
+        <v>540</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>541</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>542</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>543</v>
+      </c>
+      <c r="J83" t="s">
+        <v>544</v>
+      </c>
+      <c r="K83" t="s">
+        <v>545</v>
+      </c>
+      <c r="L83" t="s">
+        <v>546</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>547</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>548</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>549</v>
+      </c>
+      <c r="J84" t="s">
+        <v>550</v>
+      </c>
+      <c r="K84" t="s">
+        <v>551</v>
+      </c>
+      <c r="L84" t="s">
+        <v>552</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>554</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>555</v>
+      </c>
+      <c r="J85" t="s">
+        <v>556</v>
+      </c>
+      <c r="K85" t="s">
+        <v>557</v>
+      </c>
+      <c r="L85" t="s">
+        <v>558</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>559</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>561</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>562</v>
+      </c>
+      <c r="J86" t="s">
+        <v>563</v>
+      </c>
+      <c r="K86" t="s">
+        <v>564</v>
+      </c>
+      <c r="L86" t="s">
+        <v>565</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>559</v>
+      </c>
+      <c r="O86" t="s">
+        <v>126</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>566</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>567</v>
+      </c>
+      <c r="J87" t="s">
+        <v>568</v>
+      </c>
+      <c r="K87" t="s">
+        <v>569</v>
+      </c>
+      <c r="L87" t="s">
+        <v>570</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>571</v>
+      </c>
+      <c r="O87" t="s">
+        <v>67</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>573</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>574</v>
+      </c>
+      <c r="J88" t="s">
+        <v>575</v>
+      </c>
+      <c r="K88" t="s">
+        <v>576</v>
+      </c>
+      <c r="L88" t="s">
+        <v>577</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>578</v>
+      </c>
+      <c r="O88" t="s">
+        <v>144</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>580</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>581</v>
+      </c>
+      <c r="J89" t="s">
+        <v>582</v>
+      </c>
+      <c r="K89" t="s">
+        <v>583</v>
+      </c>
+      <c r="L89" t="s">
+        <v>584</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>585</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>587</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>588</v>
+      </c>
+      <c r="J90" t="s">
+        <v>589</v>
+      </c>
+      <c r="K90" t="s">
+        <v>590</v>
+      </c>
+      <c r="L90" t="s">
+        <v>591</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>592</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>593</v>
+      </c>
+      <c r="J91" t="s">
+        <v>594</v>
+      </c>
+      <c r="K91" t="s">
+        <v>595</v>
+      </c>
+      <c r="L91" t="s">
+        <v>596</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>597</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>599</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>600</v>
+      </c>
+      <c r="J92" t="s">
+        <v>601</v>
+      </c>
+      <c r="K92" t="s">
+        <v>602</v>
+      </c>
+      <c r="L92" t="s">
+        <v>603</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>597</v>
+      </c>
+      <c r="O92" t="s">
+        <v>144</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>604</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>605</v>
+      </c>
+      <c r="J93" t="s">
+        <v>606</v>
+      </c>
+      <c r="K93" t="s">
+        <v>607</v>
+      </c>
+      <c r="L93" t="s">
+        <v>608</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>609</v>
+      </c>
+      <c r="O93" t="s">
+        <v>60</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>611</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>612</v>
+      </c>
+      <c r="J94" t="s">
+        <v>613</v>
+      </c>
+      <c r="K94" t="s">
+        <v>614</v>
+      </c>
+      <c r="L94" t="s">
+        <v>615</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>616</v>
+      </c>
+      <c r="O94" t="s">
+        <v>60</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>618</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>619</v>
+      </c>
+      <c r="J95" t="s">
+        <v>620</v>
+      </c>
+      <c r="K95" t="s">
+        <v>621</v>
+      </c>
+      <c r="L95" t="s">
+        <v>622</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>623</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>624</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>625</v>
+      </c>
+      <c r="J96" t="s">
+        <v>626</v>
+      </c>
+      <c r="K96" t="s">
+        <v>627</v>
+      </c>
+      <c r="L96" t="s">
+        <v>628</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>623</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>630</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>631</v>
+      </c>
+      <c r="J97" t="s">
+        <v>632</v>
+      </c>
+      <c r="K97" t="s">
+        <v>633</v>
+      </c>
+      <c r="L97" t="s">
+        <v>634</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>623</v>
+      </c>
+      <c r="O97" t="s">
+        <v>60</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>635</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>636</v>
+      </c>
+      <c r="J98" t="s">
+        <v>637</v>
+      </c>
+      <c r="K98" t="s">
+        <v>638</v>
+      </c>
+      <c r="L98" t="s">
+        <v>639</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>640</v>
+      </c>
+      <c r="O98" t="s">
+        <v>67</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>642</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>643</v>
+      </c>
+      <c r="J99" t="s">
+        <v>644</v>
+      </c>
+      <c r="K99" t="s">
+        <v>645</v>
+      </c>
+      <c r="L99" t="s">
+        <v>646</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>647</v>
+      </c>
+      <c r="O99" t="s">
+        <v>126</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>648</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>649</v>
+      </c>
+      <c r="J100" t="s">
+        <v>650</v>
+      </c>
+      <c r="K100" t="s">
+        <v>651</v>
+      </c>
+      <c r="L100" t="s">
+        <v>652</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>653</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>654</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>655</v>
+      </c>
+      <c r="J101" t="s">
+        <v>656</v>
+      </c>
+      <c r="K101" t="s">
+        <v>657</v>
+      </c>
+      <c r="L101" t="s">
+        <v>658</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s"/>
+      <c r="O101" t="s"/>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>659</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>660</v>
+      </c>
+      <c r="J102" t="s">
+        <v>661</v>
+      </c>
+      <c r="K102" t="s">
+        <v>662</v>
+      </c>
+      <c r="L102" t="s">
+        <v>663</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>664</v>
+      </c>
+      <c r="O102" t="s">
+        <v>67</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>665</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>666</v>
+      </c>
+      <c r="J103" t="s">
+        <v>667</v>
+      </c>
+      <c r="K103" t="s">
+        <v>668</v>
+      </c>
+      <c r="L103" t="s">
+        <v>669</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>670</v>
+      </c>
+      <c r="O103" t="s">
+        <v>67</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>53398</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>671</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>672</v>
+      </c>
+      <c r="J104" t="s">
+        <v>673</v>
+      </c>
+      <c r="K104" t="s">
+        <v>674</v>
+      </c>
+      <c r="L104" t="s">
+        <v>675</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>676</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>675</v>
       </c>
     </row>
   </sheetData>
